--- a/Analyses/mainstudy/01_dataPreperation/outputs/questionnaire_openQuestions.xlsx
+++ b/Analyses/mainstudy/01_dataPreperation/outputs/questionnaire_openQuestions.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:G299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5228,81 +5228,82 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>5977986837d15f00016f1d08</t>
+          <t>6716a2900d9e3d912bc2f6c2</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>The soft robot does not use fossil fuels to power it. It uses air, which is obviously far more sustainable. It is cheaper to make, and parts are more environmentally friendly than standard robot parts. It could be a way to repurpose items for parts that would otherwise end up in landfill. Furthermore, as hinted, the soft robot could be used in an area which has suffered a natural disaster such as flooding or an earthquake much easier than a standard robot.</t>
+          <t>The Soft Robot Walker may strongly relate to ecological sustainability by its potential to utilize discarded materials, thereby reducing waste and promoting a circular economy. By repurposing materials that would otherwise contribute to landfills, it helps minimize environmental degradation and supports the conservation of resources. Additionally, if designed to mimic natural movements and functionalities, the Soft Robot Walker could enhance our understanding of ecological processes, possibly leading to innovations that support biodiversity and ecosystem restoration. By integrating itself into natural environments, it could also promote harmony between technology and nature, fostering a more sustainable relationship between human-made devices and ecological systems.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>The soft robot could be deployed to areas where there is poverty, or social injustice, for example in a disaster area. It could potentially be used in schools to teach children about engineering, to ensure that everyone has access to this technology, no matter their economic background.</t>
+          <t>The Soft Robot Walker may positively impact the social aspect of sustainability by promoting inclusivity and accessibility in technology. If designed with consideration for diverse user needs, it could offer solutions that enhance quality of life for various communities, especially those with physical limitations. By focusing on eco-friendly materials and approaches, the Soft Robot Walker can also align with values of social justice, ensuring that advancements in technology do not come at the expense of vulnerable populations or exacerbate inequalities.
+Moreover, its potential applications in areas like rehabilitation or support for individuals in challenging environments could contribute to better health outcomes and foster a sense of empowerment. By involving diverse perspectives in its development process, the Soft Robot Walker can ensure equitable benefits across society, creating a more cohesive community that values both human well-being and ecological integrity. Ultimately, its existence might encourage dialogue about the importance of sustainable practices that prioritize the needs of all individuals, leading to a more just and resilient society.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>The soft robots are cheaper to product, therefore more can be made for the same amount of money as a standard robot. It's parts are also cheaper, and better for the environment than standard robot parts. I also believe the parts are more durable and easier to replace than standard robot parts.</t>
+          <t>The Soft Robot Walker may contribute to the economic aspect of sustainability by encouraging innovative uses of materials and technologies that drive efficiency and productivity. By extending the life of discarded materials, it reduces resource consumption and costs associated with waste management, ultimately fostering a more sustainable production model. Additionally, the development and production of such technology could create decent employment opportunities in fields like engineering, design, and materials science. This innovation can stimulate economic growth while also adhering to ecological and social boundaries, ensuring that prosperity is achieved without compromising environmental health or community well-being. Through its sustainable approach, the Soft Robot Walker aligns economic activities with broader goals of resilience and equity, benefiting both the economy and society at large.</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>66ba63f27c6488261bebe6bb</t>
+          <t>5977986837d15f00016f1d08</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>By avoiding using metals and  using more environmentally friendly products it will prove more sustainable.</t>
+          <t>The soft robot does not use fossil fuels to power it. It uses air, which is obviously far more sustainable. It is cheaper to make, and parts are more environmentally friendly than standard robot parts. It could be a way to repurpose items for parts that would otherwise end up in landfill. Furthermore, as hinted, the soft robot could be used in an area which has suffered a natural disaster such as flooding or an earthquake much easier than a standard robot.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>If the soft robot is being designed to help and aid people in small ways such as picking up a dropped objest as shown in the video , then it will prove to be a social benefit. I am not sure about the reality of the "cohesive , reilient and peaceful societies" - that phrase seems rather overblown.</t>
+          <t>The soft robot could be deployed to areas where there is poverty, or social injustice, for example in a disaster area. It could potentially be used in schools to teach children about engineering, to ensure that everyone has access to this technology, no matter their economic background.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>If it is true that parts can be munufactured on small-scale 3D printers , this means that large scale factory porduction can be by-passed.</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>The soft robots are cheaper to product, therefore more can be made for the same amount of money as a standard robot. It's parts are also cheaper, and better for the environment than standard robot parts. I also believe the parts are more durable and easier to replace than standard robot parts.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>676556ccb7aac9ede13d73c9</t>
+          <t>66ba63f27c6488261bebe6bb</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5312,140 +5313,140 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t xml:space="preserve">The soft robot could be used within the natural environment in order to increase ecological sustainability. For example, if a breeding program of a particular animal was struggling AND this animal had an important role or function, then the soft robot could be substituted. When I was watching the video, it struck me just how lifelike it's movements are. This aspect could be harnessed to the advantage of humans or animals. </t>
+          <t>By avoiding using metals and  using more environmentally friendly products it will prove more sustainable.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Manufacturing  the soft robot, using recycled materials is a very sustainable attribute of the product. I see this as a big positive</t>
+          <t>If the soft robot is being designed to help and aid people in small ways such as picking up a dropped objest as shown in the video , then it will prove to be a social benefit. I am not sure about the reality of the "cohesive , reilient and peaceful societies" - that phrase seems rather overblown.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Whilst I don't doubt that considerable investment went into the design of the soft robot, like any other form of manufacturing, with each additional unit being produced, the cost per unit reduces exponentially. </t>
+          <t>If it is true that parts can be munufactured on small-scale 3D printers , this means that large scale factory porduction can be by-passed.</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>None. I found it interesting</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>5780d9a1900cc80001d2d1c2</t>
+          <t>676556ccb7aac9ede13d73c9</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>The soft walker is not energy intensive and can use a number of sustainable materials and is not dependant on electronics that are cunsumable.</t>
+          <t xml:space="preserve">The soft robot could be used within the natural environment in order to increase ecological sustainability. For example, if a breeding program of a particular animal was struggling AND this animal had an important role or function, then the soft robot could be substituted. When I was watching the video, it struck me just how lifelike it's movements are. This aspect could be harnessed to the advantage of humans or animals. </t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>The soft walker is safe to use around people</t>
+          <t>Manufacturing  the soft robot, using recycled materials is a very sustainable attribute of the product. I see this as a big positive</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>The soft walker uses a number of materials that are cheap to make or re-purpose.</t>
+          <t xml:space="preserve">Whilst I don't doubt that considerable investment went into the design of the soft robot, like any other form of manufacturing, with each additional unit being produced, the cost per unit reduces exponentially. </t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>None. I found it interesting</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>60cf0d251a90eb823bc9b740</t>
+          <t>5780d9a1900cc80001d2d1c2</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t xml:space="preserve">The soft robot is more durable and less resource intensive. This means that it is less likely to break or need parts to be replaced compared to traditionally robots or machinery. Furthermore, the reduced fuel consumption is ecologically friendly as the soft robot operates on air as opposed to fuel or electricity. </t>
+          <t>The soft walker is not energy intensive and can use a number of sustainable materials and is not dependant on electronics that are cunsumable.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>The two points here that stand out to me are the use of soft robots to perform dangerous tasks that may present health risks to humans that can be instead performed by soft robots. Secondly, reducing animal harm is another area for a solid use case whether it be interacting with animals and nature, or used in intimate settings with animals whether it be interacting with animals or recording footage in a manner that does not cause harm ecologically to the environment or animals themselves.</t>
+          <t>The soft walker is safe to use around people</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t xml:space="preserve">What stands out here is that there is less resource use for a soft robot long term, and that a soft robot could be used in numerous different contexts due to the innovation of the technology and it's flexibility from a practical standpoint. </t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>I would love to know a bit more about the future of this technology, can the robots be scaled up in size massively, what are potential limitations of the technology?</t>
+          <t>The soft walker uses a number of materials that are cheap to make or re-purpose.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>67c3321da0a96b0538b4abbe</t>
+          <t>60cf0d251a90eb823bc9b740</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t xml:space="preserve">given that materials are still required to manufacture the soft robot, it is unclear how sustainable these materials are </t>
+          <t xml:space="preserve">The soft robot is more durable and less resource intensive. This means that it is less likely to break or need parts to be replaced compared to traditionally robots or machinery. Furthermore, the reduced fuel consumption is ecologically friendly as the soft robot operates on air as opposed to fuel or electricity. </t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>I can't see how this robot meets the social aspect of sustainability</t>
+          <t>The two points here that stand out to me are the use of soft robots to perform dangerous tasks that may present health risks to humans that can be instead performed by soft robots. Secondly, reducing animal harm is another area for a solid use case whether it be interacting with animals and nature, or used in intimate settings with animals whether it be interacting with animals or recording footage in a manner that does not cause harm ecologically to the environment or animals themselves.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>the soft robot walker will possibly provide equitable growth to the manufacturer</t>
+          <t xml:space="preserve">What stands out here is that there is less resource use for a soft robot long term, and that a soft robot could be used in numerous different contexts due to the innovation of the technology and it's flexibility from a practical standpoint. </t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>the video was very dry, it could be made more engaging</t>
+          <t>I would love to know a bit more about the future of this technology, can the robots be scaled up in size massively, what are potential limitations of the technology?</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>656c8118ba4ac7120453cbc1</t>
+          <t>67c3321da0a96b0538b4abbe</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5455,29 +5456,34 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>reduced use of finite materials</t>
+          <t xml:space="preserve">given that materials are still required to manufacture the soft robot, it is unclear how sustainable these materials are </t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>dont know</t>
+          <t>I can't see how this robot meets the social aspect of sustainability</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>by not using electronics or metals in its design intent</t>
+          <t>the soft robot walker will possibly provide equitable growth to the manufacturer</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>the video was very dry, it could be made more engaging</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>6772a1d3faf7d2c4cd4e9f61</t>
+          <t>656c8118ba4ac7120453cbc1</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5487,34 +5493,29 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>by appering more natural than a metal robot we are more familiar with</t>
+          <t>reduced use of finite materials</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>i feel the soft robot has a potentially possitive future with it having insect like qualities that we as humans understand and can relate too</t>
+          <t>dont know</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>buy being easier to produce and operate than metal robots</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>very very interesting, thank you.</t>
+          <t>by not using electronics or metals in its design intent</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>605269ed69c7aac84a09dc72</t>
+          <t>6772a1d3faf7d2c4cd4e9f61</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5524,61 +5525,66 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>The soft robot does not use elecrity so negates the negative impacts of energy production.  It is modular so does not need many diferent models to perform different tasks,</t>
+          <t>by appering more natural than a metal robot we are more familiar with</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>I'm not entriely sure who this would be applicable.</t>
+          <t>i feel the soft robot has a potentially possitive future with it having insect like qualities that we as humans understand and can relate too</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>It is sustainable as it will use less raw materials to produce and not take up natural resources more than nessasaery.</t>
+          <t>buy being easier to produce and operate than metal robots</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>very very interesting, thank you.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>67694ed279dcc7886422c247</t>
+          <t>605269ed69c7aac84a09dc72</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Through using biodegradable materials like polymers and not requiring electrical components , soft robots have a much more minimal impact on the environment. Also the natural way that they can move means they can be used in natural environments , without damaging them. </t>
+          <t>The soft robot does not use elecrity so negates the negative impacts of energy production.  It is modular so does not need many diferent models to perform different tasks,</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soft robots are made with softer materials and so can better and more safely interact with humans </t>
+          <t>I'm not entriely sure who this would be applicable.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industries may  cut costs allowing them to use these new soft robots in place of more expensive machinery or human staff</t>
+          <t>It is sustainable as it will use less raw materials to produce and not take up natural resources more than nessasaery.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>668422d8da1de7d7351fcedc</t>
+          <t>67694ed279dcc7886422c247</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5588,98 +5594,93 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Because they are environmentally gentle interaction and using eco friendly materials and also energy efficient </t>
+          <t xml:space="preserve">Through using biodegradable materials like polymers and not requiring electrical components , soft robots have a much more minimal impact on the environment. Also the natural way that they can move means they can be used in natural environments , without damaging them. </t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Because they are going to improve human health and safety and also going to enhance workplace and education by building skills </t>
+          <t xml:space="preserve">Soft robots are made with softer materials and so can better and more safely interact with humans </t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Because they are cost friendly and supportive for sustainable industries and providing innovation in business development and jobs </t>
+          <t xml:space="preserve"> Industries may  cut costs allowing them to use these new soft robots in place of more expensive machinery or human staff</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>5bf1c9d332cb3b0001f6f1c3</t>
+          <t>668422d8da1de7d7351fcedc</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>i dont feel the soft robot would help ecological aspect of sustainability at all. i cant see how a soft robot would help ecosystems, climate ect in any way!</t>
+          <t xml:space="preserve">Because they are environmentally gentle interaction and using eco friendly materials and also energy efficient </t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>im not sure that it has any social sustainability</t>
+          <t xml:space="preserve">Because they are going to improve human health and safety and also going to enhance workplace and education by building skills </t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>it seems the soft walking robot would be a good use of materials. it would efficiantly useproducts that are enviromentlly friendly.</t>
+          <t xml:space="preserve">Because they are cost friendly and supportive for sustainable industries and providing innovation in business development and jobs </t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>5c81582c4c1a61000155584f</t>
+          <t>5bf1c9d332cb3b0001f6f1c3</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>it looks like it could be easily fabricated from recycled materials, thus reducing its carbon footprint and conserving resources.</t>
+          <t>i dont feel the soft robot would help ecological aspect of sustainability at all. i cant see how a soft robot would help ecosystems, climate ect in any way!</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve">it looks cheap and made of inexpensive materials meaning that people in poorer countries could potentially easily buy or make these robots, therefore making it widely available. </t>
+          <t>im not sure that it has any social sustainability</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>the low price of its materials means it can be widely adopted by people in poorer countries. if it's widely used it could increase employment and economic activity in those countries.</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>no</t>
+          <t>it seems the soft walking robot would be a good use of materials. it would efficiantly useproducts that are enviromentlly friendly.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>6730dedb32982b0bdf64d9c2</t>
+          <t>5c81582c4c1a61000155584f</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5689,34 +5690,34 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve">I agree that design of SRW fits with sustainability of the ecological system; in terms of its energy use (air, not electricity), its use of 3D printing in the making (not heavy, metal components), and long life span. </t>
+          <t>it looks like it could be easily fabricated from recycled materials, thus reducing its carbon footprint and conserving resources.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>The social aspect of using SRW is good; it helps save lives in dangerous situations (fire, explosion, constrction), and promotes good health and social equality. It helps to build a happier, more stable society.</t>
+          <t xml:space="preserve">it looks cheap and made of inexpensive materials meaning that people in poorer countries could potentially easily buy or make these robots, therefore making it widely available. </t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>The SRW has its economic advantages, with the less use of energy, simple design concepts (air valves/gates/switches) and user-friendly 3D printing, the quality of being flexible, adaptable yet maintaining its stability and grip, and the fact it can operate under tough, dangerous conditions. All combined it makes SRW a highly competitive product in the market, through its efficiency in innovation, resource use, longevity, and eco-friendliness.</t>
+          <t>the low price of its materials means it can be widely adopted by people in poorer countries. if it's widely used it could increase employment and economic activity in those countries.</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>I find the video contents straightforward, easy to understand and absorb.</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>59995d926c165e000113fb21</t>
+          <t>6730dedb32982b0bdf64d9c2</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5726,61 +5727,66 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>I believe this robot can support observational research.</t>
+          <t xml:space="preserve">I agree that design of SRW fits with sustainability of the ecological system; in terms of its energy use (air, not electricity), its use of 3D printing in the making (not heavy, metal components), and long life span. </t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>I cannot think of anything related to theis robot's impact on social sustainability.</t>
+          <t>The social aspect of using SRW is good; it helps save lives in dangerous situations (fire, explosion, constrction), and promotes good health and social equality. It helps to build a happier, more stable society.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Perhaps having lower cost for their production would support this.</t>
+          <t>The SRW has its economic advantages, with the less use of energy, simple design concepts (air valves/gates/switches) and user-friendly 3D printing, the quality of being flexible, adaptable yet maintaining its stability and grip, and the fact it can operate under tough, dangerous conditions. All combined it makes SRW a highly competitive product in the market, through its efficiency in innovation, resource use, longevity, and eco-friendliness.</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>I find the video contents straightforward, easy to understand and absorb.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>5ea07fc202b8bd05bb59bc38</t>
+          <t>59995d926c165e000113fb21</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>By using less energy in production and use then emissions are reduced.</t>
+          <t>I believe this robot can support observational research.</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>The soft robot has the potential to help disadvantaged people in society whose ability to move around are compromised, it is an aid to their independence. The robot might also be used in temperatures harmful to humans and over dangerous terrains.</t>
+          <t>I cannot think of anything related to theis robot's impact on social sustainability.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>By using previously used elements. Is light on energy demands whilst in use and is a robust piece of kit.</t>
+          <t>Perhaps having lower cost for their production would support this.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>5c72af4a04d7bc00013899b3</t>
+          <t>5ea07fc202b8bd05bb59bc38</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5790,71 +5796,66 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>It seems as if the robot would be very mindful of its surroundings and cause no damage at all. It's soft, can traverse various terrains comfortably and did not appear to cause any damage whatsoever in the video. It's design is ecologically friendly, not using gas, electricity or other harmful substances.</t>
+          <t>By using less energy in production and use then emissions are reduced.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>I can see how this could help people with mobility issues to perform tasks which would otherwise be difficult or even beyond their capabilities. My only doubt is its suitability, given that it appears so low to the ground. Having a chronic pain condition myself, I am wondering how I would be able to retrieve the objects it had so handily brought to me! Is this the only design shape being considered?</t>
+          <t>The soft robot has the potential to help disadvantaged people in society whose ability to move around are compromised, it is an aid to their independence. The robot might also be used in temperatures harmful to humans and over dangerous terrains.</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>It is cheaper to make, cheaper to run than conventional robots, likely to be more durable as there is less to go wrong.</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>To be honest, I fully understood the wish to provide a connection with the natural world but I did find the robot a bit creepy! And, as I mentioned, is this the only design shape being considered? Its proximity to the ground did make me wonder about its ability to carry out some of the tasks I'd like it, and expect it, to be able to carry out.</t>
+          <t>By using previously used elements. Is light on energy demands whilst in use and is a robust piece of kit.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>67693b69371357770f713607</t>
+          <t>5c72af4a04d7bc00013899b3</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t xml:space="preserve">it does not require material that could damage the environment like traditional robots do like metals and therefore would not harm the environment as those materials could b damaging. </t>
+          <t>It seems as if the robot would be very mindful of its surroundings and cause no damage at all. It's soft, can traverse various terrains comfortably and did not appear to cause any damage whatsoever in the video. It's design is ecologically friendly, not using gas, electricity or other harmful substances.</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>this would ensure people of all class would be able to have access to it as is does not require electricity or other resources that only middle or upper class may be able to get. it could open doors to people by helping them with day to day activities and put less pressure on families who have relatives with mobility issue or long term health conditions.</t>
+          <t>I can see how this could help people with mobility issues to perform tasks which would otherwise be difficult or even beyond their capabilities. My only doubt is its suitability, given that it appears so low to the ground. Having a chronic pain condition myself, I am wondering how I would be able to retrieve the objects it had so handily brought to me! Is this the only design shape being considered?</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>this could be benefical in the longterm for people who need help and unable to due to mobility issues and could open up more possibilities to hep society and at the same time preserving the environment.</t>
+          <t>It is cheaper to make, cheaper to run than conventional robots, likely to be more durable as there is less to go wrong.</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>all was ok</t>
+          <t>To be honest, I fully understood the wish to provide a connection with the natural world but I did find the robot a bit creepy! And, as I mentioned, is this the only design shape being considered? Its proximity to the ground did make me wonder about its ability to carry out some of the tasks I'd like it, and expect it, to be able to carry out.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>5afbf02302b1b5000103e313</t>
+          <t>67693b69371357770f713607</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5864,61 +5865,66 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>the soft robots may be able to be constructed using fewer resources, to use recyclable materials, and to stop so much use of other materials that are less environmentally friendly. it can operate in some environments that traditional robots cannot, perhaps meaning that more invasive work in those areas by humans and larger machinery are not needed, and so safeguarding those environments over what would otherwise be done in them.</t>
+          <t xml:space="preserve">it does not require material that could damage the environment like traditional robots do like metals and therefore would not harm the environment as those materials could b damaging. </t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t xml:space="preserve">it could enable a greater range of people to have access to this sort of technology, making it more equitable and spreading its benefits across a wider group. it means the technology is not necessarily kept to certain groups who have more money, knowledge and resources. </t>
+          <t>this would ensure people of all class would be able to have access to it as is does not require electricity or other resources that only middle or upper class may be able to get. it could open doors to people by helping them with day to day activities and put less pressure on families who have relatives with mobility issue or long term health conditions.</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve">the robot may well be able to be created more cheaply than other more traditional robots. this means that its benefits can be gained more widely and for a cheaper price than others. this means it can be used for a wider range of tasks that may not be economically viable for other robots. it can hopefully help to use resources more efficiently in this way. it can help provide more jobs in a more equitable and cheaper way where they may not have been economically viable before. </t>
+          <t>this could be benefical in the longterm for people who need help and unable to due to mobility issues and could open up more possibilities to hep society and at the same time preserving the environment.</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>all was ok</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>665f117be1c0d33d87759252</t>
+          <t>5afbf02302b1b5000103e313</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SRW is also enivormental friendly as it does not harm Earth in anyway and affects the biodiversity.</t>
+          <t>the soft robots may be able to be constructed using fewer resources, to use recyclable materials, and to stop so much use of other materials that are less environmentally friendly. it can operate in some environments that traditional robots cannot, perhaps meaning that more invasive work in those areas by humans and larger machinery are not needed, and so safeguarding those environments over what would otherwise be done in them.</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>SRW promotes social justice and health from its production to its existance. We learn that it does not use harmfull products during production which is good for people in communities.</t>
+          <t xml:space="preserve">it could enable a greater range of people to have access to this sort of technology, making it more equitable and spreading its benefits across a wider group. it means the technology is not necessarily kept to certain groups who have more money, knowledge and resources. </t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve">SRW promotes employment for people to produce it and creates more work opportunities </t>
+          <t xml:space="preserve">the robot may well be able to be created more cheaply than other more traditional robots. this means that its benefits can be gained more widely and for a cheaper price than others. this means it can be used for a wider range of tasks that may not be economically viable for other robots. it can hopefully help to use resources more efficiently in this way. it can help provide more jobs in a more equitable and cheaper way where they may not have been economically viable before. </t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>5e493133b4bc203a048f8ce9</t>
+          <t>665f117be1c0d33d87759252</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5928,98 +5934,98 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Soft Robots may help with the ecological side of sustainability due to their smaller energy footprint they are using. Also, they move gently and softly which can help when damage to the eco system comes into play.</t>
+          <t>SRW is also enivormental friendly as it does not harm Earth in anyway and affects the biodiversity.</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soft Robots may help with the social aspect as they can do jobs that are high risk and humans don't want to do reducing the risk of loss of human life. Also, you could use them in hospitals as they are non threatening. </t>
+          <t>SRW promotes social justice and health from its production to its existance. We learn that it does not use harmfull products during production which is good for people in communities.</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Soft robots may help with the economic aspect of sustaiablity due to their lower production costs. These means less resources that are harmful to the environment will go into them and reduce repair costs as well as energy usage.</t>
+          <t xml:space="preserve">SRW promotes employment for people to produce it and creates more work opportunities </t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>6658e7b76712e30718aaadf9</t>
+          <t>5e493133b4bc203a048f8ce9</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t xml:space="preserve">The design of the robot will mean that it needs less energy to operate compared to heavy machinery. I think that if you could use biodegradable materials, then it could be eco-friendly. </t>
+          <t>Soft Robots may help with the ecological side of sustainability due to their smaller energy footprint they are using. Also, they move gently and softly which can help when damage to the eco system comes into play.</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Robot could improve workplace safety by being able to handle the hazardous tasks that are dangerous for humans. Also as its lightweight it could be good for close human interaction for elderly people. </t>
+          <t xml:space="preserve">Soft Robots may help with the social aspect as they can do jobs that are high risk and humans don't want to do reducing the risk of loss of human life. Also, you could use them in hospitals as they are non threatening. </t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t xml:space="preserve">It will have lower production costs compared to large robots, this could mean that automation could be more accessible for small/medium sized companies. Also as the parts of the robot are not that complex, it could mean that the repair expenses will be less. </t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>It was great</t>
+          <t>Soft robots may help with the economic aspect of sustaiablity due to their lower production costs. These means less resources that are harmful to the environment will go into them and reduce repair costs as well as energy usage.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>671a643f7c39e2123974abef</t>
+          <t>6658e7b76712e30718aaadf9</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>This can only be true if the materials that are used are eco-friendly, and if there is recycling system in mind while creating soft robots. I would need more information on the materials to say more.</t>
+          <t xml:space="preserve">The design of the robot will mean that it needs less energy to operate compared to heavy machinery. I think that if you could use biodegradable materials, then it could be eco-friendly. </t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>To be honest, this will depend on how the soft robot is used. It is difficult to judge as it may be useless, but if used properly, might be sociably sustainable.</t>
+          <t xml:space="preserve">The Robot could improve workplace safety by being able to handle the hazardous tasks that are dangerous for humans. Also as its lightweight it could be good for close human interaction for elderly people. </t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>I think soft robots are a goode example of innovation, and because of cheaper costs of production compared to conventional robots, they should be more economically sustainable in the long run</t>
+          <t xml:space="preserve">It will have lower production costs compared to large robots, this could mean that automation could be more accessible for small/medium sized companies. Also as the parts of the robot are not that complex, it could mean that the repair expenses will be less. </t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>It was great</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>65c9209712b2fc050e53e24b</t>
+          <t>671a643f7c39e2123974abef</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6029,34 +6035,29 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t xml:space="preserve">It can adapt to different environments, or even any,  changing environments which can be very helpful  </t>
+          <t>This can only be true if the materials that are used are eco-friendly, and if there is recycling system in mind while creating soft robots. I would need more information on the materials to say more.</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t xml:space="preserve">For home, help and health application. Robert Helpers / nurses could help with a lot of tasks </t>
+          <t>To be honest, this will depend on how the soft robot is used. It is difficult to judge as it may be useless, but if used properly, might be sociably sustainable.</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Sustainable materials and repairs, and more resilience for longer stability of the soft robot</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>Interesting</t>
+          <t>I think soft robots are a goode example of innovation, and because of cheaper costs of production compared to conventional robots, they should be more economically sustainable in the long run</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>636d39168fe0bc0570ee8da0</t>
+          <t>65c9209712b2fc050e53e24b</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6066,103 +6067,103 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>As above, and also I'm aware of the environmentally destructive aspects of 'green industry' (as its currently defined), such as open cast lithium mining for batteries and the other 'rare earths' involved in these technologies, but the production of plastics is part of the hydrocarbon industry, which causes CO2 production, and hence contributes to global warming, potential environmental collapse, etc.</t>
+          <t xml:space="preserve">It can adapt to different environments, or even any,  changing environments which can be very helpful  </t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t xml:space="preserve">The 'open source' nature of these soft robots is quite interesting, in that many of the components can apparently be printed at home or in a small workshop. This would seem to have the potential to democratise the technology, which could foster inclusion for currently marginalised communities and countries. </t>
+          <t xml:space="preserve">For home, help and health application. Robert Helpers / nurses could help with a lot of tasks </t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Although I'm impressed and interested in the design and the absence of metallic/electronic components, it seems like the tentacles and other parts of the soft robot are constructed from forms of plastic or artificial rubber, which are after all products of hydrocarbon/oil industry.</t>
+          <t>Sustainable materials and repairs, and more resilience for longer stability of the soft robot</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>Interesting</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>5f2447bc5eb3020009277023</t>
+          <t>636d39168fe0bc0570ee8da0</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>The soft robot highlights how such robots can be created using technology that does not have such a large impact on the environment. Uses air, 3D printed parts, and being soft means there is less wear and tear. This is in contrast to more conventional robots that use electricity, standard manufactured parts and are made from hard mechanical materials, which means they can become faulty over time and could require replacing entirely.</t>
+          <t>As above, and also I'm aware of the environmentally destructive aspects of 'green industry' (as its currently defined), such as open cast lithium mining for batteries and the other 'rare earths' involved in these technologies, but the production of plastics is part of the hydrocarbon industry, which causes CO2 production, and hence contributes to global warming, potential environmental collapse, etc.</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>The robot uses soft touch technology so there is minimal harm to humans when interacting with the robot. It is inspired by nature so that it can safely transport gripped items, in a stable and steady way.</t>
+          <t xml:space="preserve">The 'open source' nature of these soft robots is quite interesting, in that many of the components can apparently be printed at home or in a small workshop. This would seem to have the potential to democratise the technology, which could foster inclusion for currently marginalised communities and countries. </t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>The robot demonstrates that it is possible to build a prototype using more sustainable techniques. I would expect to see costings of this being produced so that this can be compared against more conventional manufacturing techniques for robots. Potential also to reduce this cost if the techniques are adopted in a more widespread way due to economies of scale.</t>
+          <t>Although I'm impressed and interested in the design and the absence of metallic/electronic components, it seems like the tentacles and other parts of the soft robot are constructed from forms of plastic or artificial rubber, which are after all products of hydrocarbon/oil industry.</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>n/a</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>62f3b543dce069211e8e982c</t>
+          <t>5f2447bc5eb3020009277023</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Less precious resources are made in the construction of the robots, and far less energy is used in the powering of them (compressed air is ecologically more sustainable than batteries or generated electricity, for example)</t>
+          <t>The soft robot highlights how such robots can be created using technology that does not have such a large impact on the environment. Uses air, 3D printed parts, and being soft means there is less wear and tear. This is in contrast to more conventional robots that use electricity, standard manufactured parts and are made from hard mechanical materials, which means they can become faulty over time and could require replacing entirely.</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>This is connected to the previous section. These soft robots are much cheaper to produce and maintain which means they are affordable to larger groups of people. This means more people can enjoy the many benefits of the robots, and can afford to adapt them to their own needs (rather than having robots that are essentially designed for something different)</t>
+          <t>The robot uses soft touch technology so there is minimal harm to humans when interacting with the robot. It is inspired by nature so that it can safely transport gripped items, in a stable and steady way.</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>It is obviously going to be much cheaper to make (needing far fewer electronic resources, for example). It also uses more readily available resources (less metal for example). The fact that they are more robust and last longer adds to the economic benefits.</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>All good!</t>
+          <t>The robot demonstrates that it is possible to build a prototype using more sustainable techniques. I would expect to see costings of this being produced so that this can be compared against more conventional manufacturing techniques for robots. Potential also to reduce this cost if the techniques are adopted in a more widespread way due to economies of scale.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>56ab6fd869b24700065cbdbd</t>
+          <t>62f3b543dce069211e8e982c</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6172,66 +6173,66 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Does not require energy intensive machinery to make and also does not require electricity to operate</t>
+          <t>Less precious resources are made in the construction of the robots, and far less energy is used in the powering of them (compressed air is ecologically more sustainable than batteries or generated electricity, for example)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>The soft robot is a machine is inclusive and a practical aid for those with disabilities</t>
+          <t>This is connected to the previous section. These soft robots are much cheaper to produce and maintain which means they are affordable to larger groups of people. This means more people can enjoy the many benefits of the robots, and can afford to adapt them to their own needs (rather than having robots that are essentially designed for something different)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>The employment opportunities arise from a new field in robotics, while the 3d printing of soft robots massively saves on resources</t>
+          <t>It is obviously going to be much cheaper to make (needing far fewer electronic resources, for example). It also uses more readily available resources (less metal for example). The fact that they are more robust and last longer adds to the economic benefits.</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>All good!</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>67bcba4cce51e01aa4648b3b</t>
+          <t>56ab6fd869b24700065cbdbd</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>The SRW is highly adaptable and has movements that can be applied to tasks in the environment. It has a flexible grip and can be operated in very cold environments. It is highly sustainable.</t>
+          <t>Does not require energy intensive machinery to make and also does not require electricity to operate</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t xml:space="preserve">It will be affordable to less economically wealthy nations. That will be much fairer and result in all types of groups in society benefitting. </t>
+          <t>The soft robot is a machine is inclusive and a practical aid for those with disabilities</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>It is very adaptable and does not rely on electronics. It's likely to be long lasting and relatively cheap to produce and maintain. Its carbo footprint will be low. It will be available on a much cheaper basis than conventional robotics.</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>More examples of real world applications would have been helpful.</t>
+          <t>The employment opportunities arise from a new field in robotics, while the 3d printing of soft robots massively saves on resources</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>5bb0f624a1c73d0001b9d62d</t>
+          <t>67bcba4cce51e01aa4648b3b</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6241,103 +6242,103 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>this soft robot would have a lower impact on the environment it interacts with resulting in less damage to an ecosystem in comparrison to a standard robot</t>
+          <t>The SRW is highly adaptable and has movements that can be applied to tasks in the environment. It has a flexible grip and can be operated in very cold environments. It is highly sustainable.</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t xml:space="preserve">this would provide a more cost friendly option for robotics that is more accessible </t>
+          <t xml:space="preserve">It will be affordable to less economically wealthy nations. That will be much fairer and result in all types of groups in society benefitting. </t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve">by reducing the need for large power supplies to make it function as well as being able to print new parts using a standard 3d printer on site </t>
+          <t>It is very adaptable and does not rely on electronics. It's likely to be long lasting and relatively cheap to produce and maintain. Its carbo footprint will be low. It will be available on a much cheaper basis than conventional robotics.</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>More examples of real world applications would have been helpful.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>63b9d5da6b90172429bad8b9</t>
+          <t>5bb0f624a1c73d0001b9d62d</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Some of the points I made above apply here too, since higher economic sustainability would imply higher ecological sustainability (I think; I am not familiar with this distinction). So, for example, less wasteful production and simpler raw materials should go hand in hand with both economic and ecological sustainability. I am not sure there were any aspects of ecological sustainability over and above economic sustainability. </t>
+          <t>this soft robot would have a lower impact on the environment it interacts with resulting in less damage to an ecosystem in comparrison to a standard robot</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am less sure about social sustainability regarding soft robots. The only two points I can think of are (a) that they can be produced more cheaply and so would be more widely available (b) they can be produced at home (so they do not required specialised production resources, which may be available to fewer people). </t>
+          <t xml:space="preserve">this would provide a more cost friendly option for robotics that is more accessible </t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t xml:space="preserve">There were a few points during the video pointing to the expected higher economic sustainability aspect of soft robots: easier and less wasteful production; simpler raw materials; more modular design (the last would imply, I think, more exchangeability during models). Also, the soft robots appear well suited to a wider range of environments and tasks, so that fewer distinct models would be needed (here, I assume this higher efficiency translates to more economical and sustainable production). </t>
+          <t xml:space="preserve">by reducing the need for large power supplies to make it function as well as being able to print new parts using a standard 3d printer on site </t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>655b901b23209ae4a194a402</t>
+          <t>63b9d5da6b90172429bad8b9</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>It is an energy-efficient operation, and is completely free of electronics</t>
+          <t xml:space="preserve">Some of the points I made above apply here too, since higher economic sustainability would imply higher ecological sustainability (I think; I am not familiar with this distinction). So, for example, less wasteful production and simpler raw materials should go hand in hand with both economic and ecological sustainability. I am not sure there were any aspects of ecological sustainability over and above economic sustainability. </t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>As it is made sustainability, it will not contain any materials that may cause harm to people, and is safe to use around people, particularly the most vulnerable in society, and it will improve productivity within society.</t>
+          <t xml:space="preserve">I am less sure about social sustainability regarding soft robots. The only two points I can think of are (a) that they can be produced more cheaply and so would be more widely available (b) they can be produced at home (so they do not required specialised production resources, which may be available to fewer people). </t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>It is cost effective as it doesn't use electronics, and can be made with the assistance of a 3D printer from the comfort of your own home, reducing the amount of money spent on materials.</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t xml:space="preserve">There were a few points during the video pointing to the expected higher economic sustainability aspect of soft robots: easier and less wasteful production; simpler raw materials; more modular design (the last would imply, I think, more exchangeability during models). Also, the soft robots appear well suited to a wider range of environments and tasks, so that fewer distinct models would be needed (here, I assume this higher efficiency translates to more economical and sustainable production). </t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>5d352f8bb02857001963539a</t>
+          <t>655b901b23209ae4a194a402</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6347,34 +6348,34 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>They are much more environmentally friendly, 3D printed so they don't use any electronics and are suitable for bad environments. They are also resilient and don't wear easily so will not need to be replaced often, reducing strain on resources.</t>
+          <t>It is an energy-efficient operation, and is completely free of electronics</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>The soft robot walker relates to the social aspect of sustainability as there are many possible uses it can be put to to help people and reduce inequality.</t>
+          <t>As it is made sustainability, it will not contain any materials that may cause harm to people, and is safe to use around people, particularly the most vulnerable in society, and it will improve productivity within society.</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>The soft robot walkers are very economically sustainable as they are resistant to wear compared to conventional robots and also help reduce energy consumption.</t>
+          <t>It is cost effective as it doesn't use electronics, and can be made with the assistance of a 3D printer from the comfort of your own home, reducing the amount of money spent on materials.</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>5ea00c9769e0250009a479df</t>
+          <t>5d352f8bb02857001963539a</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6384,98 +6385,103 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Does not use metal for construction</t>
+          <t>They are much more environmentally friendly, 3D printed so they don't use any electronics and are suitable for bad environments. They are also resilient and don't wear easily so will not need to be replaced often, reducing strain on resources.</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Not dependent on electricity, made from recycleable materials and can pick up and carry different shaped objects</t>
+          <t>The soft robot walker relates to the social aspect of sustainability as there are many possible uses it can be put to to help people and reduce inequality.</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Made using a 3D printer rather than machinery</t>
+          <t>The soft robot walkers are very economically sustainable as they are resistant to wear compared to conventional robots and also help reduce energy consumption.</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>just thanks for educating me on the subject</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>6765faff976fdcf31c7dbd98</t>
+          <t>5ea00c9769e0250009a479df</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>With the soft walker being made out of bio materials with bio circuits and using air pressure it seems absolutely brilliant for the environment. With the insect aspect, the soft walker produced en-masse could mimic certain insects ecological benefits, taking on the role of insects but 10x faster to get quicker results. And aiding the environment and helping it thrive in the long run.</t>
+          <t>Does not use metal for construction</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Being made of bio materials and being less mechanical, means it integrates better with the human populace. Although it is quite clearly a robot regardless, they'd have to give its shell a natural finish as well which is the one thing we didn't see. It's outward appearance is really what will help it in this sector, even if that does seem superficial.</t>
+          <t>Not dependent on electricity, made from recycleable materials and can pick up and carry different shaped objects</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>The soft robot looks like it has this in mind, it is very innovative taking ideas from the stick insect. It doesn't rely on electricity so it is less hazardous. On an economic level, could see these be used to help in building structures, although you'd need a really big 3D printer, or maybe it could be sent into a hazardous area to help humans.</t>
+          <t>Made using a 3D printer rather than machinery</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>just thanks for educating me on the subject</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>5cf510ccb0bafb00161ffd56</t>
+          <t>6765faff976fdcf31c7dbd98</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>it will relate to ecological sustainability because it doesn't require any electricity and works purely off compressed air which is far more environmentally friendly than other robots i have seen.</t>
+          <t>With the soft walker being made out of bio materials with bio circuits and using air pressure it seems absolutely brilliant for the environment. With the insect aspect, the soft walker produced en-masse could mimic certain insects ecological benefits, taking on the role of insects but 10x faster to get quicker results. And aiding the environment and helping it thrive in the long run.</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>i feel that the shape, size and colour of the soft robot is suitable for everyone to use therefore it's not just aimed at any particular person/gender. it will go down well for people wanting to make positive sustainable choices</t>
+          <t>Being made of bio materials and being less mechanical, means it integrates better with the human populace. Although it is quite clearly a robot regardless, they'd have to give its shell a natural finish as well which is the one thing we didn't see. It's outward appearance is really what will help it in this sector, even if that does seem superficial.</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve">the soft robot works effectively using air which is economical as it's a natural source and it doesn't use a power source which isn't good for the environment. </t>
+          <t>The soft robot looks like it has this in mind, it is very innovative taking ideas from the stick insect. It doesn't rely on electricity so it is less hazardous. On an economic level, could see these be used to help in building structures, although you'd need a really big 3D printer, or maybe it could be sent into a hazardous area to help humans.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>60187851316976127d909f30</t>
+          <t>5cf510ccb0bafb00161ffd56</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6485,98 +6491,93 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>To what I understand the soft robot uses air to move and not electric therefore does not use any of the earths precious resources.</t>
+          <t>it will relate to ecological sustainability because it doesn't require any electricity and works purely off compressed air which is far more environmentally friendly than other robots i have seen.</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t xml:space="preserve">What I can see is the soft robot can not harm anyone in anyway.  </t>
+          <t>i feel that the shape, size and colour of the soft robot is suitable for everyone to use therefore it's not just aimed at any particular person/gender. it will go down well for people wanting to make positive sustainable choices</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>The soft robot is not made out of expensive components therefore can be made and replaced economically</t>
+          <t xml:space="preserve">the soft robot works effectively using air which is economical as it's a natural source and it doesn't use a power source which isn't good for the environment. </t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>63a7036757c246aaa3ad90f5</t>
+          <t>60187851316976127d909f30</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>By using sustainable and eco friendly products in its manufacturing. Recycling at end of life.</t>
+          <t>To what I understand the soft robot uses air to move and not electric therefore does not use any of the earths precious resources.</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>To ensure that these creations benefit society and in particular human's safety.</t>
+          <t xml:space="preserve">What I can see is the soft robot can not harm anyone in anyway.  </t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>By using eco products in its development and 3D printing.</t>
+          <t>The soft robot is not made out of expensive components therefore can be made and replaced economically</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>5978f6f009bdcf000153f43d</t>
+          <t>63a7036757c246aaa3ad90f5</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>The soft robot walker may help the ecological aspect of sustainability by using less resources to build and maintain itself therefore saving natural resources and freely the pressure on the natural world.Less energy used means less fuel to power it which in turn aids the pressure on the natural world.</t>
+          <t>By using sustainable and eco friendly products in its manufacturing. Recycling at end of life.</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>The soft robot walker could help the social aspect of sustainability by ensuring the safety of humans in areas where normally it is dangerous or hazardous to human life by being deployed in these areas thus ensuring greater safety for workers and other human activities.</t>
+          <t>To ensure that these creations benefit society and in particular human's safety.</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>The soft robot may help to conserve resources both material and man power by being less prone to wear and tear thanks to its soft body design.It uses less power by being controlled by air pressure via a hose which does not in the end use electricity.The robot can be manufactured by a 3d printer that could be set up in a home setting thus saving energy time and resources in its build.It could be used in areas where it is dangerous for humans to work in contributing to the safety and life of humans reducing the risk of harm greatly.</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>Very engaging study.Thank you.</t>
+          <t>By using eco products in its development and 3D printing.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>631623dc8a64a7f2d743deac</t>
+          <t>5978f6f009bdcf000153f43d</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6586,71 +6587,71 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Because it doesn't involve any electrical circuitry, it does not depend on mining metals to make this, thus immune to the cause of pollution caused by metal minings. The materials used in the production can come from the trash that can be repurposed as a material for 3d printing making another sustainable solution for the trash that we make.</t>
+          <t>The soft robot walker may help the ecological aspect of sustainability by using less resources to build and maintain itself therefore saving natural resources and freely the pressure on the natural world.Less energy used means less fuel to power it which in turn aids the pressure on the natural world.</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>This will be cheaper to produce as it doe not need specialised and heavy equipment to make so products like this will be significant;y lower and affordable by many.</t>
+          <t>The soft robot walker could help the social aspect of sustainability by ensuring the safety of humans in areas where normally it is dangerous or hazardous to human life by being deployed in these areas thus ensuring greater safety for workers and other human activities.</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>As this is a 3D printable product it can be an other way of making our trash into something useable and it does not require battery to operate. This would make it easier to maintain and cheaper to run.</t>
+          <t>The soft robot may help to conserve resources both material and man power by being less prone to wear and tear thanks to its soft body design.It uses less power by being controlled by air pressure via a hose which does not in the end use electricity.The robot can be manufactured by a 3d printer that could be set up in a home setting thus saving energy time and resources in its build.It could be used in areas where it is dangerous for humans to work in contributing to the safety and life of humans reducing the risk of harm greatly.</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>None, but this is a very exciting study, I enjoyed it.</t>
+          <t>Very engaging study.Thank you.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>668db0a372d0c41c15a558ba</t>
+          <t>631623dc8a64a7f2d743deac</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Might be able to use smaller machines, for mining for example, so less damage to environment</t>
+          <t>Because it doesn't involve any electrical circuitry, it does not depend on mining metals to make this, thus immune to the cause of pollution caused by metal minings. The materials used in the production can come from the trash that can be repurposed as a material for 3d printing making another sustainable solution for the trash that we make.</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Not at all relevant regarding this robot</t>
+          <t>This will be cheaper to produce as it doe not need specialised and heavy equipment to make so products like this will be significant;y lower and affordable by many.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>The robot might be used in dangerous situations to extract recycleable materials. A modular unit means that parts can be interchanged and so less manufacturing of additional parts needed</t>
+          <t>As this is a 3D printable product it can be an other way of making our trash into something useable and it does not require battery to operate. This would make it easier to maintain and cheaper to run.</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>None, but this is a very exciting study, I enjoyed it.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>5a4a5db666e7880001de6366</t>
+          <t>668db0a372d0c41c15a558ba</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6660,183 +6661,183 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The materials used for manufacturing robots using biodegradable materials</t>
+          <t>Might be able to use smaller machines, for mining for example, so less damage to environment</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Could help engage with connections with different types of people, i.e. assisting with aging population</t>
+          <t>Not at all relevant regarding this robot</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Could help assisting with healthcare, i.e. rehabilitation and surgery </t>
+          <t>The robot might be used in dangerous situations to extract recycleable materials. A modular unit means that parts can be interchanged and so less manufacturing of additional parts needed</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>5d5167d1374c5d0001b56d8b</t>
+          <t>5a4a5db666e7880001de6366</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve">The soft robot is made of easily obtained materials and is cheaper to make than conventional robots. It is more sustainable to our ecological processes. </t>
+          <t xml:space="preserve"> The materials used for manufacturing robots using biodegradable materials</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>The soft robot will be used in different establishments over time and will become visible in everyday life, providing education.</t>
+          <t>Could help engage with connections with different types of people, i.e. assisting with aging population</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve">The soft Robot promotes sufficient use as it is 3D printed and is a fraction of a cost than conventional robots. Employment  will be decent as these types of robots will need to be made more obtainable to certain establishments growing long term economic resiliency </t>
+          <t xml:space="preserve">Could help assisting with healthcare, i.e. rehabilitation and surgery </t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t xml:space="preserve">The video was extremely slow </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>5d5167d1374c5d0001b56d8b</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The soft robot is made of easily obtained materials and is cheaper to make than conventional robots. It is more sustainable to our ecological processes. </t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>The soft robot will be used in different establishments over time and will become visible in everyday life, providing education.</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The soft Robot promotes sufficient use as it is 3D printed and is a fraction of a cost than conventional robots. Employment  will be decent as these types of robots will need to be made more obtainable to certain establishments growing long term economic resiliency </t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The video was extremely slow </t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>664de718b933e68528f6a979</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>i think its not harmful its looks good for the economic freindly</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>it will very friendly for social its can be very helpful for people with cannot do simple task of their life</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>environment protection and making environment free  things i good for out future generation i this generation everythings are blogs to electronic or batterie  i really love soft robot walker can use for lot of useful things and the legs are looks soft  not harmful</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
           <t>235</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>62b437a2dbff0b6b3d0121e4</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>bioinspired</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
         <is>
           <t>1. Reducing ecological environmental impact by using energy efficient components
 2. By operating on renewable energy
 This lowers their overall carbon footprint compared to conventional machines.</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>1. Improving quality of life by taking on tasks that are dangerous, repeptitive or physically demanding.
 2. Supporting inclusive access to services such as elderly care, education services
 3. Ethical Labor Transition such as human-robot collab rather than replacing people</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>1. Long-term cost efficiency by using less energy and materials and they also have long lifespans and low maintenance needs.
 2. Rather than replacing jobs, sustainable robots like this could support new roles and support human collaboration.
 3. Can also reduce risk and economic loss by predictive maintenance in infrastructure and industry, or improving workplace safety and reducing accidents</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>No it was straightforward</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>5bc1a04c471dff00016341e4</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>sustainable</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>The materials that have created the robot can be good for ecological aspects of sustainability hopefully.</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>The robot can perform tasks that humans can make when it comes to social aspects of sustainability.</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>The economic impact can be positive because the robot can perform human like tasks of sustainability.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>5d07ce4eb4fd5c001cee075c</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>sustainable</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">By using sustainable materials it helps the Earth's resources </t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Not sure, but it is more sustainable than a traditional robot</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>It is more economic because last longer</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>Very interesting. A pleasure to take part!</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>5fb4f7b816ba5b1868ac6bd2</t>
+          <t>5bc1a04c471dff00016341e4</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6846,125 +6847,130 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Reduced reliance on electronics which are a big consumers of resources. Not reliant on an electrical power source means less drain on environmental resources and easier production could reduce environmental toxins.</t>
+          <t>The materials that have created the robot can be good for ecological aspects of sustainability hopefully.</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>More accessibility to such a robot could enhance lives in a more sustainable way that would otherwise be out of reach for most people due to the inflexibility and cost of existing robots.</t>
+          <t>The robot can perform tasks that humans can make when it comes to social aspects of sustainability.</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Lesser reliance on electronics and electrical power might make the product cheaper to manufacture. The unlimited expandability could mean more efficient use of resources and less disposable products. The ability to manufacture cheapy at hoe using a 3D printer also seems to have enhanced economic potential.</t>
+          <t>The economic impact can be positive because the robot can perform human like tasks of sustainability.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>5ad8dbe2e34a050001b83eac</t>
+          <t>5d07ce4eb4fd5c001cee075c</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>It is highly innovative due to being able to protect natural habitats and will positively benefit our planet</t>
+          <t xml:space="preserve">By using sustainable materials it helps the Earth's resources </t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>It is environmentally friendly as it does not contain any harmful materials and it will make a positive difference to people's lives.</t>
+          <t>Not sure, but it is more sustainable than a traditional robot</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Highly innovative and totally unique, I love the fact that it promotes efficient resource use and will work in harmony with our planet.</t>
+          <t>It is more economic because last longer</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Very interesting. A pleasure to take part!</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>66420f13760bbfe0ee3af466</t>
+          <t>5fb4f7b816ba5b1868ac6bd2</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Earths fragility is talked about daily in the news and on social media. Anything that helps the sustainability of the environment and its resources, has to be promoted and used in more widespread areas in the world.</t>
+          <t>Reduced reliance on electronics which are a big consumers of resources. Not reliant on an electrical power source means less drain on environmental resources and easier production could reduce environmental toxins.</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>the softbrobot walker can support social sustainability byimproving mobility for the elderly or disabled people, increasing independence and inclusion, giving a boost in quality of life, while reducing yhe need for caregivers.</t>
+          <t>More accessibility to such a robot could enhance lives in a more sustainable way that would otherwise be out of reach for most people due to the inflexibility and cost of existing robots.</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Being cheap to make and using readily available materials is great for future generations. The chance to include recycled materials would be great for efficiency if capable of using them. </t>
+          <t>Lesser reliance on electronics and electrical power might make the product cheaper to manufacture. The unlimited expandability could mean more efficient use of resources and less disposable products. The ability to manufacture cheapy at hoe using a 3D printer also seems to have enhanced economic potential.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>60b932147633bf0dd446941e</t>
+          <t>5ad8dbe2e34a050001b83eac</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Well it would cut down on machining and oil based technologies which have an adverse effect on the environment, it still uses plastic hoses which isn't good but it is a lot cleaner than conventional robots.</t>
+          <t>It is highly innovative due to being able to protect natural habitats and will positively benefit our planet</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>The soft robot could provide free or cheap access to workable safe robots for communities under the poverty line.</t>
+          <t>It is environmentally friendly as it does not contain any harmful materials and it will make a positive difference to people's lives.</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Its cheap to build and run and is powered by compressed air.</t>
+          <t>Highly innovative and totally unique, I love the fact that it promotes efficient resource use and will work in harmony with our planet.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>66718bbb61a1ad0225968d18</t>
+          <t>66420f13760bbfe0ee3af466</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6974,93 +6980,93 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Im not sure how this would relate directly, unless it serves a purpose that could help ecosystems.If the capability of the soft robot were programmed in a way to support ecological advancements then yes it could help very much. </t>
+          <t>Earths fragility is talked about daily in the news and on social media. Anything that helps the sustainability of the environment and its resources, has to be promoted and used in more widespread areas in the world.</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Again, i'm not sure how a soft robot affects social aspects of social sustainability unless its learning supported to help people learn or develop upon a skill while using the soft robot. So interns of education it could foster that. </t>
+          <t>the softbrobot walker can support social sustainability byimproving mobility for the elderly or disabled people, increasing independence and inclusion, giving a boost in quality of life, while reducing yhe need for caregivers.</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is using material that are already existing and do not require new parts etc to be made then maybe it could work on that economical stand point. Its design seams very innovative so it could be made in a more sustainable way that limits the need of mass production for the time being. </t>
+          <t xml:space="preserve">Being cheap to make and using readily available materials is great for future generations. The chance to include recycled materials would be great for efficiency if capable of using them. </t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>5c406396e144310001072059</t>
+          <t>60b932147633bf0dd446941e</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ecological aspect: I agree that the soft robot helps the environment by using less energy and lighter materials compared to the traditional machines. Plus fact its more adaptable, means its more gentle movement will reduce damage to natural areas. </t>
+          <t>Well it would cut down on machining and oil based technologies which have an adverse effect on the environment, it still uses plastic hoses which isn't good but it is a lot cleaner than conventional robots.</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Social aspect: I agree that the soft walker supports this because it can be used in so many ways. It can for example improve people's quality of life by helping those who have mobiliity issues move more safely and more importantly independently. </t>
+          <t>The soft robot could provide free or cheap access to workable safe robots for communities under the poverty line.</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Economic aspect: i agree that the soft walker supports this because it reduces costs - traditional robots require so much more money, and on top of that can easily damage compared to these soft robots that are more adaptable. Besides that, it does support long term economic growth through innovation. </t>
+          <t>Its cheap to build and run and is powered by compressed air.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>5f6f2da91b5cc64887afd65d</t>
+          <t>66718bbb61a1ad0225968d18</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>I don't really have a particular view on this. Some of the functions may reduce the need to use tools that need more energy to operate and that is a definite plus. It may also be generally more sustainable in terms of resistance to damage and have a positive impact in that sense</t>
+          <t xml:space="preserve">Im not sure how this would relate directly, unless it serves a purpose that could help ecosystems.If the capability of the soft robot were programmed in a way to support ecological advancements then yes it could help very much. </t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t xml:space="preserve">If this was included in the video i can't recall it.  If costs are kept down then access for more people may be achievable. </t>
+          <t xml:space="preserve">Again, i'm not sure how a soft robot affects social aspects of social sustainability unless its learning supported to help people learn or develop upon a skill while using the soft robot. So interns of education it could foster that. </t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>If it turns out to be cheaper to produce than that will have benefits as long as the production cycle still facilitates reasonable living wages while ensuring company profits.</t>
+          <t xml:space="preserve">It is using material that are already existing and do not require new parts etc to be made then maybe it could work on that economical stand point. Its design seams very innovative so it could be made in a more sustainable way that limits the need of mass production for the time being. </t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>5f5bb87a0093333445af65f2</t>
+          <t>5c406396e144310001072059</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7070,135 +7076,130 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>The Walker uses few resources and is maintained by an efficient system of replacement parts via the 3D printing mechanism and the use of compressed air for movement.</t>
+          <t xml:space="preserve">Ecological aspect: I agree that the soft robot helps the environment by using less energy and lighter materials compared to the traditional machines. Plus fact its more adaptable, means its more gentle movement will reduce damage to natural areas. </t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>They enable all sectors of society to have access to this technology. The ability to 3D print circuits and use compressed air are available to all kinds of people.</t>
+          <t xml:space="preserve">Social aspect: I agree that the soft walker supports this because it can be used in so many ways. It can for example improve people's quality of life by helping those who have mobiliity issues move more safely and more importantly independently. </t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>The low start up cost and the low cost of maintenance ensures access to businesses in every economic strata.</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>No.</t>
+          <t xml:space="preserve">Economic aspect: i agree that the soft walker supports this because it reduces costs - traditional robots require so much more money, and on top of that can easily damage compared to these soft robots that are more adaptable. Besides that, it does support long term economic growth through innovation. </t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>56cb314508d7300005fd312a</t>
+          <t>5f6f2da91b5cc64887afd65d</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Not sure. I think it can't be, as at the end it is a machine.</t>
+          <t>I don't really have a particular view on this. Some of the functions may reduce the need to use tools that need more energy to operate and that is a definite plus. It may also be generally more sustainable in terms of resistance to damage and have a positive impact in that sense</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>I really do not know. They will use energy, so I'm not sure how they can be friendly.</t>
+          <t xml:space="preserve">If this was included in the video i can't recall it.  If costs are kept down then access for more people may be achievable. </t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>And this I am not sure. Probably by creating jobs, if companies would want to invest in it?</t>
+          <t>If it turns out to be cheaper to produce than that will have benefits as long as the production cycle still facilitates reasonable living wages while ensuring company profits.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>664df024c7ce709382bea0ed</t>
+          <t>5f5bb87a0093333445af65f2</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t xml:space="preserve">The robot is 3d printed so it is recyclable, the robot doesn't use electricity it is powered by an air pump, so its less likely anything can go wrong with its engineering making it cost effective. </t>
+          <t>The Walker uses few resources and is maintained by an efficient system of replacement parts via the 3D printing mechanism and the use of compressed air for movement.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t xml:space="preserve">With soft grips it can work with humans and become help to them. </t>
+          <t>They enable all sectors of society to have access to this technology. The ability to 3D print circuits and use compressed air are available to all kinds of people.</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t xml:space="preserve">It doesnt use electricity it is powered by an air pump therefore there is alt less that can go wrong engineering wise. It is also 3D printed making it highly cost effective </t>
+          <t>The low start up cost and the low cost of maintenance ensures access to businesses in every economic strata.</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t xml:space="preserve">I found the study really interesting, The video was very clear and informative </t>
+          <t>No.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>56cf683331a5bc000de1d20e</t>
+          <t>56cb314508d7300005fd312a</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>The soft robot walker is designed to last, the materials used are not likely to need replacing or mending as hard robots might.</t>
+          <t>Not sure. I think it can't be, as at the end it is a machine.</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>The soft robot walker appears to be a safer option to be used around people compared to the hard, more mechanical robot</t>
+          <t>I really do not know. They will use energy, so I'm not sure how they can be friendly.</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>As the soft robot is made from more sustainable materials, is less likely to need repairs involving spare parts and can be made via 3D printing, I would suggest it is more economically sustainable</t>
+          <t>And this I am not sure. Probably by creating jobs, if companies would want to invest in it?</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>5c72f9bf8711bf000139c5ee</t>
+          <t>664df024c7ce709382bea0ed</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7208,29 +7209,34 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t xml:space="preserve">the walker will ensure we are not using original vehicles, and therefore damaging the planet. This is our future. when you think about delivery as it stands, fuel polluting the skies and damaging childrens health, the walker could eradicate that.  </t>
+          <t xml:space="preserve">The robot is 3d printed so it is recyclable, the robot doesn't use electricity it is powered by an air pump, so its less likely anything can go wrong with its engineering making it cost effective. </t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>It can be used to deliver products to keep people in the look so to speak. It can also help in education, having children study its effectiveness</t>
+          <t xml:space="preserve">With soft grips it can work with humans and become help to them. </t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t xml:space="preserve">future productivity of the walker will allow our country to move forward with efficiency. </t>
+          <t xml:space="preserve">It doesnt use electricity it is powered by an air pump therefore there is alt less that can go wrong engineering wise. It is also 3D printed making it highly cost effective </t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I found the study really interesting, The video was very clear and informative </t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>6715fa8490b20c9f0317e48d</t>
+          <t>56cf683331a5bc000de1d20e</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7240,71 +7246,61 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>the soft robot would probably be ecological in terms of the materials used to make it and the recycability of these materials</t>
+          <t>The soft robot walker is designed to last, the materials used are not likely to need replacing or mending as hard robots might.</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>i can see how the soft robot could be used in health and education as a tool or a means of training but i have no idea how it could be used for social justice, equality and inclusion</t>
+          <t>The soft robot walker appears to be a safer option to be used around people compared to the hard, more mechanical robot</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>the soft robot appears to be available via a 3d printer which would make it a lot cheaper that other robots</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>all good</t>
+          <t>As the soft robot is made from more sustainable materials, is less likely to need repairs involving spare parts and can be made via 3D printing, I would suggest it is more economically sustainable</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>5c50efd2cc71f4000125ce0d</t>
+          <t>5c72f9bf8711bf000139c5ee</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Concerns the preservation of ecosystems.</t>
+          <t xml:space="preserve">the walker will ensure we are not using original vehicles, and therefore damaging the planet. This is our future. when you think about delivery as it stands, fuel polluting the skies and damaging childrens health, the walker could eradicate that.  </t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>It consists of well-being and development of all people within safe ecological limits.</t>
+          <t>It can be used to deliver products to keep people in the look so to speak. It can also help in education, having children study its effectiveness</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Will help growth and support long-term.</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>No.</t>
+          <t xml:space="preserve">future productivity of the walker will allow our country to move forward with efficiency. </t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>5b79e92cdb11320001c3d5da</t>
+          <t>6715fa8490b20c9f0317e48d</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7314,29 +7310,34 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>It is made to last, using less harsh materials making it more sustainable. It can be made cheaper than the standard robot and uses less products making it longer lasting but also safer on the environment</t>
+          <t>the soft robot would probably be ecological in terms of the materials used to make it and the recycability of these materials</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is new, credible and innovative. It is made to last making it more sustainable than the other robots available and is made in a new and sustainable way. </t>
+          <t>i can see how the soft robot could be used in health and education as a tool or a means of training but i have no idea how it could be used for social justice, equality and inclusion</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>It uses less harsh materials than standard robots. It is innovative, modern and credible. It is adaptable to different environments and seems to be long lasting and durable</t>
+          <t>the soft robot appears to be available via a 3d printer which would make it a lot cheaper that other robots</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>all good</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>673b27194ee61c182145405b</t>
+          <t>5c50efd2cc71f4000125ce0d</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7346,314 +7347,309 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>The robot contains no hazardous materials, heavy metals or difficult-to-recycle components. The lack of electronics is of clear benefit to environmental sustainability and avoidance of pollution and need for waste management, energy intensive recycling and landfill.</t>
+          <t>Concerns the preservation of ecosystems.</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>The soft robot could be made available to anyone with a 3D printer, to use as they see fit. It could encourage local and inclusive projects, without social or biased constraints.</t>
+          <t>It consists of well-being and development of all people within safe ecological limits.</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>If made from geniunely recycled or recyclable materials, the soft robot has a clear environmental advantage over electromechanical robots. Decentralised manufacture may provide more local job opportunities, and no polluting supply chain transportation. The robot appears to contain no hazardous materials, and compressed air can be produced in an environmentally friendly way.</t>
+          <t>Will help growth and support long-term.</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Very interesting, thank you. I will endeavour to learn more about soft robots and their applications.</t>
+          <t>No.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>63de43b08a408605eced4803</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Thumbs up for all of that, we have done so much damage to our planet, we must now look after what we have left and protect it in anyway we can.</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>What a wonderful world if only all countries were on  board with these policies</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>It's so very important that we what ever we build to think responsibly in order to maintain our resources.</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>great study thank you</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>5b79e92cdb11320001c3d5da</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>It is made to last, using less harsh materials making it more sustainable. It can be made cheaper than the standard robot and uses less products making it longer lasting but also safer on the environment</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It is new, credible and innovative. It is made to last making it more sustainable than the other robots available and is made in a new and sustainable way. </t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>It uses less harsh materials than standard robots. It is innovative, modern and credible. It is adaptable to different environments and seems to be long lasting and durable</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>673b27194ee61c182145405b</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>The robot contains no hazardous materials, heavy metals or difficult-to-recycle components. The lack of electronics is of clear benefit to environmental sustainability and avoidance of pollution and need for waste management, energy intensive recycling and landfill.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>The soft robot could be made available to anyone with a 3D printer, to use as they see fit. It could encourage local and inclusive projects, without social or biased constraints.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>If made from geniunely recycled or recyclable materials, the soft robot has a clear environmental advantage over electromechanical robots. Decentralised manufacture may provide more local job opportunities, and no polluting supply chain transportation. The robot appears to contain no hazardous materials, and compressed air can be produced in an environmentally friendly way.</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Very interesting, thank you. I will endeavour to learn more about soft robots and their applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>67e95b4ce056cb97ac8a5c21</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soft Robot walker may contribute positively to ecological sustainability by its low impact design. This will help cut down the costs hugely for other factors. Absence of electronics and entirely depending on compressed air is something that is hugely admired as it reduces any kinds of pollution that might come along with electronics. Easy repairs due to its modular construction and enabling easy adaptations can help reduce material waste and extend the robot`s lifespan. </t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It supports the well being of human and safety through its soft, compliant materials. By this there is guaranteed safety when humans and robots interact from time to time. Its ability to handle delicate objects can helps human beings a lot in careful handling of such materials. It is equally very accessible to the people who use it as it lacks electronics. </t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Due to its modular construction it is easier to repair and replace different parts. Manufacturing costs of electronics components for the robot could have cost such a huge amount but due to the fact that it does not have any electronics its a huge benefit. Its versatility is very huge as it can do a number of things at a time for example gripping and walking. The design in the long term promotes resource allocation which can lower operational costs and improve the economic viability. </t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
           <t>265</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>6146fb92e89e10d7aa8662a2</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>sustainable</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
         <is>
           <t>The lack of metal or electric components means that those particular products won't be being manufactured for this type of robot. The robot does need have 3D printed parts though, so that process requires the material to form it and the electricity to run the 3D printer. With it being a soft robot and able to handle different terrains, it isn't destructive in its movements when doing a task, unlike a heavy, mechanical robot would likely be. For example, if it were moving around a delicate area where plants were growing, the soft robot would be able to cause minimal damage, where as a heavier robot would likely cause harm to growing things, roots, insects and animals etc.</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>This soft robot will take less harsh materials to produce, therefore protecting the heath of the people who produce the robots. 
 These new ways of production and programming will need people who are educated in such fields, expanding their knowledge and passing it on to new generations and developing new ideas for the future.</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t xml:space="preserve">Less metal and electrical components is going to be cheaper in the long run. So producing, and fixing running these soft robots will be more economically sustainable. The new innovation will require a generation of forward thinking people, who are likely going to be coming from the gen Z and Alpha generations, giving them job opportunities and future economic stability. </t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>266</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>66095f32c9a782ed6acaf8fb</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>sustainable</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
         <is>
           <t xml:space="preserve">the soft robot may relate to ecological sustainability as it can protect natural habitats, meaning that they wont get destroyed and will last longer, therefore improving the environment </t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>a soft robot walker may relate to social sustainability, as they can be designed to be assistive to a wide range of people</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t xml:space="preserve">a soft robot walker may relate to economic sustainability, through lower production and maintenance costs, as they can be made from rather inexpensive materials, they are also very energy efficient </t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t>267</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>63af557b3d4f219c3226b7d6</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>sustainable</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
         <is>
           <t>I think the ecological impact would be in how soft robots interact with living things, ecosystems and long term environmental impact (as described in the earlier answer). As they can work better than traditional robots in complex and changing environments, they are more suitable to work with people or animals/plants without damaging the subjects or the environment. A soft robot is less likley damage a plant or an animal when it comes into contact with it.More traditional robots have lower flexibility and are more confined to harsher environments. Maybe soft robots could be used in work underwater due to the lack of electricity required to power them.</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>Sort robots are more cost effective to produce and maintain. They can be 3d printed.
 Soft robots are inherently safe for humans to work alongside and they could therefore be used in the medical or social care sector more easily. Perhaps a soft robot is less threatening to a human than a cumbersome hard robot.</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t xml:space="preserve">A soft robot is more sustainable than it's traditional robot counterparts. They can be powered by compressed air rather than electricity.  They are usually made of softer materials, such as polymers, which means there is less wear and tear than traditional harder materials, meaning reduced consumption for parts and a longer lifespan. Their design is made of simpler structures reducing machining and waste. </t>
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="214">
+      <c r="A214" t="inlineStr">
         <is>
           <t>268</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>5faed3b0bc045b08acb353e0</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>bioinspired</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
         <is>
           <t>Using the soft robot walker instead of a traditional robot may be useful in reducing metal mining and refinery. It would also reduce strain on electricity sources by using the compressed air, however there is still the question of how electricity is used in making the robot and compressing the air.
 Being made of polymer it may have a negative impact on habitats if it is broken or attacked and eaten by wildlife.</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t xml:space="preserve">In a time where people need community and discipline more than ever, I do not see the social benefits of the soft robot walker. People are losing their sense of purpose, so to introduce a robot that may threaten what little purpose people still have feels unnecessary. </t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F214" t="inlineStr">
         <is>
           <t>The soft robot walker would be beneficial to the creators and businesses looking to maximise their efficiency e.g. warehouses using larger models to transport goods. However I do not foresee that this would have wide applications within the world of civilian work, except in scenarios that would cost people manual labour jobs.
 It has practical military use as it can transport weaponry and explosives into areas where a human may not be able to travel.</t>
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>66f4a91ab3891338de6e6107</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>sustainable</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">having a soft robot  is  a good sustainable robot to help preserve the eco system and climate stabilize to maintain earths life support system. </t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i believe that any help to ward sustainability in a robot focused world is a good thing, it enables to be developed in a safe ecological limit and emphasizes social justice and education and inclusion to foser cohesive and peaceful societies. </t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">making these kind of robots as they are resourceful and sustainable , as it pushes social boundaries, and does promote efficient stuff , such as employment , and growth, where if that is the case can only better society. </t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>interesting study</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>5ecd36302b4d3c05d4cc1ba2</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>sustainable</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>It uses air therefore conserving sources like electricity for other things. It limits waste as it can be extended and enlarged.</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>It would be able to access dangerous or life threatening situation that would be difficult and awkward for a human.</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>It is powered by air and can be modified and altered easily without having to make a completely new model</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>Nothing to add</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>65804dc6b00fe596b885c595</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>bioinspired</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>The robot is low energy usage and has no features which generate environmental degreregation.</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>it can make people's lives easier.</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>it can generate new jobs in research and development</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>no thank you</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>274</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>5d9750fe74d24900145633a7</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>sustainable</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>I imagine it contains recycled and recyclable parts</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I can't see how it relates to that</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>There are no electronic parts, only 3d printed components</t>
-        </is>
-      </c>
-    </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>6315fdca8c4637cea9f114cf</t>
+          <t>66f4a91ab3891338de6e6107</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7663,29 +7659,34 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>By using compressed air as it's energy source, the soft walker takes less resources from the natural environment than a conventional robot, making it more ecologically sustainable. Conventional robots use energy sources which take from natural habitats and produce harmful chemicals which impact the environment, whereas the soft walker does not.</t>
+          <t xml:space="preserve">having a soft robot  is  a good sustainable robot to help preserve the eco system and climate stabilize to maintain earths life support system. </t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>The soft walker is more flexible, being made of softer materials such as polymer, than the conventional robot which tend to be made of hard materials such as metals. This can reduce the liklihood of injury resulting from human and robot interaction, protecting people's health. Furthermore, the soft robot is more accessible to the general public as it can be made using a 3D printer, rather than conventional robots which need specialised machinary and can be expensive. This means that people with disabilities are able to use the soft walker to help them with their daily lives, improving their well-being.</t>
+          <t xml:space="preserve">i believe that any help to ward sustainability in a robot focused world is a good thing, it enables to be developed in a safe ecological limit and emphasizes social justice and education and inclusion to foser cohesive and peaceful societies. </t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>The soft robot is made of resources which are easy to access, and can be made using a simple 3D printer, making them more economically sustainable as they are much cheaper to produce than the conventional robot which require specialist machines. Additionally, the soft robot is much more sustainable long-term, and is less likely to show signs of wear and tear compared to the conventional robot, meaning that each unit lasts longer before needing to be replaced. Also, units can be expanded and modified as desired, meaning that if the robot needs to be used for an additional purpose in the future it can be modified to accommodate this, rather than a new robot being produced.</t>
+          <t xml:space="preserve">making these kind of robots as they are resourceful and sustainable , as it pushes social boundaries, and does promote efficient stuff , such as employment , and growth, where if that is the case can only better society. </t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>interesting study</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>67744f20b883cc037347b3ea</t>
+          <t>5ecd36302b4d3c05d4cc1ba2</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7695,29 +7696,34 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t xml:space="preserve">I imagine that most of its materials can be recycled. Both in creating and repurposing. It can provide additional opportunities to use materials that already exists. </t>
+          <t>It uses air therefore conserving sources like electricity for other things. It limits waste as it can be extended and enlarged.</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Making them cheap to create or reuse can give more equal opportunities of its usage to less developed societies. Everyone could benefit from them. </t>
+          <t>It would be able to access dangerous or life threatening situation that would be difficult and awkward for a human.</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>That makes sense, recycled materials would make it cheap to make and reuse. It could also give equitable opportunities to less developed countries.</t>
+          <t>It is powered by air and can be modified and altered easily without having to make a completely new model</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Nothing to add</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>5ce1372c55fe0d001869c8d8</t>
+          <t>65804dc6b00fe596b885c595</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7727,135 +7733,130 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>It might relate to sustainability if its made by sustainable material and doesnt negatively affect the environment</t>
+          <t>The robot is low energy usage and has no features which generate environmental degreregation.</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>i dont see a way the robot can influence economic aspects of sustainability</t>
+          <t>it can make people's lives easier.</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>i dont see a way the robot can influence economic aspects of sustainability</t>
+          <t>it can generate new jobs in research and development</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>no thank you</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>67aa54c162dc637de018fe18</t>
+          <t>5d9750fe74d24900145633a7</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>The Soft Robot Walker supports ecological sustainability by minimizing environmental impact through its design and operation. Its use of soft, air-filled materials instead of rigid, energy-intensive components reduces mechanical wear and energy consumption. The robot’s ability to function without electronics and rely solely on compressed air makes it suitable for sensitive or hazardous environments, lowering the risk of ecological disruption. Additionally, its modular structure and compatibility with low-cost 3D printing promote decentralized production, which can reduce transportation emissions and resource extraction. By mimicking biological systems and adapting to natural terrain, the SRW aligns with ecological principles that prioritize harmony with ecosystems and long-term resilience.</t>
+          <t>I imagine it contains recycled and recyclable parts</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>The Soft Robot Walker supports social sustainability by promoting safer and more inclusive human–robot interaction. Its soft, bio-inspired design reduces the risk of injury, making it suitable for use in healthcare, elder care, and educational settings where physical safety is paramount. The ability to handle delicate objects and adapt to diverse environments means it can assist people with varying needs, including those in underserved or high-risk communities. Additionally, its low-cost, modular construction makes it more accessible to institutions and individuals with limited resources, fostering broader participation in technological innovation and education. This inclusivity helps build more equitable and resilient societies.</t>
+          <t>I can't see how it relates to that</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>The Soft Robot Walker contributes to economic sustainability by promoting innovation through its bio-inspired, modular design and low-cost production. Its reliance on compressed air instead of electricity reduces operational costs and energy consumption, making it more accessible for small-scale industries or educational institutions. The ability to 3D-print components at home or in decentralized settings encourages local manufacturing and reduces dependence on expensive, centralized production systems. This opens up opportunities for decent employment in emerging tech sectors and supports equitable growth by lowering barriers to entry for robotics development. Overall, the SRW aligns with long-term economic resilience by combining affordability, adaptability, and sustainable resource use.</t>
+          <t>There are no electronic parts, only 3d printed components</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>6310ccbda708843d8c079b6d</t>
+          <t>6315fdca8c4637cea9f114cf</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>It won't use too many manufactured products and materials and won't end up back in landfill at the end of its life</t>
+          <t>By using compressed air as it's energy source, the soft walker takes less resources from the natural environment than a conventional robot, making it more ecologically sustainable. Conventional robots use energy sources which take from natural habitats and produce harmful chemicals which impact the environment, whereas the soft walker does not.</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>It will appeal to people who are wanting to save the planet, and will actually help in this and set a precedent for future robot manufacturing and use</t>
+          <t>The soft walker is more flexible, being made of softer materials such as polymer, than the conventional robot which tend to be made of hard materials such as metals. This can reduce the liklihood of injury resulting from human and robot interaction, protecting people's health. Furthermore, the soft robot is more accessible to the general public as it can be made using a 3D printer, rather than conventional robots which need specialised machinary and can be expensive. This means that people with disabilities are able to use the soft walker to help them with their daily lives, improving their well-being.</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>It will use more recyclable products and less energy and be more long lasting, therefore costing companies less in money and also time and energy</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>none, other than it is a interesting topic</t>
+          <t>The soft robot is made of resources which are easy to access, and can be made using a simple 3D printer, making them more economically sustainable as they are much cheaper to produce than the conventional robot which require specialist machines. Additionally, the soft robot is much more sustainable long-term, and is less likely to show signs of wear and tear compared to the conventional robot, meaning that each unit lasts longer before needing to be replaced. Also, units can be expanded and modified as desired, meaning that if the robot needs to be used for an additional purpose in the future it can be modified to accommodate this, rather than a new robot being produced.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>5b98c8c1db823b0001ef5842</t>
+          <t>67744f20b883cc037347b3ea</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Again, because it's very green it limits the ecological impact and minimizes environmental damage </t>
+          <t xml:space="preserve">I imagine that most of its materials can be recycled. Both in creating and repurposing. It can provide additional opportunities to use materials that already exists. </t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>I think the robot will help with unity and inclusion as it won't look at the social rating and will help regardless</t>
+          <t xml:space="preserve">Making them cheap to create or reuse can give more equal opportunities of its usage to less developed societies. Everyone could benefit from them. </t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>It can help with sustainability in a way that it promotes efficient resource re-use - there is no need to get extra resources, which is very green as sch</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>That makes sense, recycled materials would make it cheap to make and reuse. It could also give equitable opportunities to less developed countries.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>691e3fc7b0f34b9107c4cfb5</t>
+          <t>5ce1372c55fe0d001869c8d8</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7865,29 +7866,29 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Since it does not use electricity I would like to think it is sustainable in ecological aspect. However, it was not clear how the compressed air will be produced and if it needs to be 'charged' regularly. If that process is also environmentally friendly then this product is a good example of sustainable design.</t>
+          <t>It might relate to sustainability if its made by sustainable material and doesnt negatively affect the environment</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>This product can be made at home with 3D printers so it is more accessible than other robots. This could benefit a wider range of users and contribute to the equality and inclusion aspects.</t>
+          <t>i dont see a way the robot can influence economic aspects of sustainability</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>It seems this robot is cheaper and has the potential to use recycled materials. This promotes efficient use of resources. However, I do not see how it might affect employment.</t>
+          <t>i dont see a way the robot can influence economic aspects of sustainability</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>6776534802a260299509660c</t>
+          <t>67aa54c162dc637de018fe18</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7897,29 +7898,29 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Because the new robot can be made without heavy machinery its production will be more ecologically sustainable than traditional robots. Additionally, it can be probably made from less harmful and more recyclable resources.</t>
+          <t>The Soft Robot Walker supports ecological sustainability by minimizing environmental impact through its design and operation. Its use of soft, air-filled materials instead of rigid, energy-intensive components reduces mechanical wear and energy consumption. The robot’s ability to function without electronics and rely solely on compressed air makes it suitable for sensitive or hazardous environments, lowering the risk of ecological disruption. Additionally, its modular structure and compatibility with low-cost 3D printing promote decentralized production, which can reduce transportation emissions and resource extraction. By mimicking biological systems and adapting to natural terrain, the SRW aligns with ecological principles that prioritize harmony with ecosystems and long-term resilience.</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>I do not think that the new robot has a large impact on social sustainability.</t>
+          <t>The Soft Robot Walker supports social sustainability by promoting safer and more inclusive human–robot interaction. Its soft, bio-inspired design reduces the risk of injury, making it suitable for use in healthcare, elder care, and educational settings where physical safety is paramount. The ability to handle delicate objects and adapt to diverse environments means it can assist people with varying needs, including those in underserved or high-risk communities. Additionally, its low-cost, modular construction makes it more accessible to institutions and individuals with limited resources, fostering broader participation in technological innovation and education. This inclusivity helps build more equitable and resilient societies.</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>On the one hand the new robot is economically sustainable because it can be made cost-effectively using 3D printers and lowering initial cost as well as maintenace cost. On the other hand, that means that workers who used to construct robots before could be in danger of losing their jobs.</t>
+          <t>The Soft Robot Walker contributes to economic sustainability by promoting innovation through its bio-inspired, modular design and low-cost production. Its reliance on compressed air instead of electricity reduces operational costs and energy consumption, making it more accessible for small-scale industries or educational institutions. The ability to 3D-print components at home or in decentralized settings encourages local manufacturing and reduces dependence on expensive, centralized production systems. This opens up opportunities for decent employment in emerging tech sectors and supports equitable growth by lowering barriers to entry for robotics development. Overall, the SRW aligns with long-term economic resilience by combining affordability, adaptability, and sustainable resource use.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>63d37e4ea0985c4dc486ff8e</t>
+          <t>672789bc7b3816f4f1a42e43</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7929,66 +7930,71 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Again, less mining of electronic components is needed to make these which is good for lessening environmental destruction</t>
+          <t xml:space="preserve">The Soft Robot can adapt to changing environments due to the materials it is constructed from.  It is more durable than conventional rigid robots leading to less waste.  The Soft Robot doesn't use electric or electronics to function which leads to a more sustainable power source and less use of key resources.  due to its soft makeup there will be less damage to the environment e.g. objects ground etc.  </t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>It isn't needing lots of electronic components which are often mined under harsh conditions, it only needs compressed air and 3D printed polymers.</t>
+          <t>The soft robot can have an impact on health and safety due to its softness.  the softness of the soft robot can make interactions with people safer compared to conventional robots.  Soft robots can contribute to the wellbeing and development of people in many ways.  Soft robots can help improve the quality of life of people, especially those that are vulnerable due to disability etc.</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>It's 3D printed so it can be manufactured in many places for low cost</t>
+          <t>Soft Robots may relate to economic sustainability by improving efficiency.  the use of soft, sustainable materials and 3d printed circuits that do not use electronics will all help the robots and potential uses to focus on environmental and social wellbeing.  Employment opportunities will arise due to the new markets that will be forged for a soft robot.</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>none a very interesting study</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>60dca45abca3eb229bafdedf</t>
+          <t>6310ccbda708843d8c079b6d</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>it could be 3D printed from waste material and unlike standard robots isn't solely operated by electricity.</t>
+          <t>It won't use too many manufactured products and materials and won't end up back in landfill at the end of its life</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>seems that with the device being able to be 3D printed it would have an open source following which would create a social aspect advancing ideas between different manufacturers only leading to improvements or evolution in design</t>
+          <t>It will appeal to people who are wanting to save the planet, and will actually help in this and set a precedent for future robot manufacturing and use</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>reduces the cost of manufacture and places it local with cheap 3D printing, reducing shipping costs and can be made to order as such</t>
+          <t>It will use more recyclable products and less energy and be more long lasting, therefore costing companies less in money and also time and energy</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>none, other than it is a interesting topic</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>5eea256b9e506b0d09822cdc</t>
+          <t>5b98c8c1db823b0001ef5842</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7998,66 +8004,66 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>I doubt it will have much impact outside of being more sustainable than similar products which are so environmentally damning as it is that the benefits do not outweigh but merely lesson the blow of the cons</t>
+          <t xml:space="preserve">Again, because it's very green it limits the ecological impact and minimizes environmental damage </t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>I do not feel as though it possesses any influence in regards to this as it is very niche and not societally applicable</t>
+          <t>I think the robot will help with unity and inclusion as it won't look at the social rating and will help regardless</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>I feel like I still don't understand the purpose that the robot serves and therefore it strikes me as a waste of money and whilst I feel as though it may create jobs temporarily because i don't see it having any other success , I doubt that it will make enough money to consolidate the amount that will be wasted in its development</t>
+          <t>It can help with sustainability in a way that it promotes efficient resource re-use - there is no need to get extra resources, which is very green as sch</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>673dacc49b7076ea013a0ba3</t>
+          <t>691e3fc7b0f34b9107c4cfb5</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>sustainable</t>
+          <t>bioinspired</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>The Soft Robot walker uses materials which minimises ennvironmental degradation I believe? The sustainable materials that it uses (compared to other robots in the market) prove to be much more ecologically sustainable, with the materials use described as not being harmful to the local environment</t>
+          <t>Since it does not use electricity I would like to think it is sustainable in ecological aspect. However, it was not clear how the compressed air will be produced and if it needs to be 'charged' regularly. If that process is also environmentally friendly then this product is a good example of sustainable design.</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>I'm not too sure how it relates to the social aspects of sustainability. It's design and use can be adapted to fit specific needs which may contribute towards the well-being and development of all people. It's adaptive use will prove to help others with specific needs from all different backgrounds.</t>
+          <t>This product can be made at home with 3D printers so it is more accessible than other robots. This could benefit a wider range of users and contribute to the equality and inclusion aspects.</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's low-cost and ability to be printed at home supports the idea that the robot uses resources efficiently, and it's purpose supports the idea that it can support long-term economic resilience and stability. </t>
+          <t>It seems this robot is cheaper and has the potential to use recycled materials. This promotes efficient use of resources. However, I do not see how it might affect employment.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>6575a21552774fe562fecb1b</t>
+          <t>67d80b3db0cac8b1bd982fb2</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8067,61 +8073,66 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>requiring less materials will reduce use of natural resources and ease of part replacement (home 3d modelling) will reduce resource use</t>
+          <t>The Soft Robot Walker can reduce environmental impact by using lightweight materials and less energy compard to rigid robots. If made from durable or recyclable materials, It helps reduce waste and supports enviromentally friendly healthcare solutions.</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>may help vulnerable communities if the soft robot is developed further and can be used safely amongst people</t>
+          <t>The soft Robot walker improves quality of life by helping people with mobility challenges walk and move independently. It promotes inclusion, equality and better health, especially for the elderly amd people with disabilities.</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>may apply to the cheaper maintenance and labour of certain industries once developed further</t>
+          <t>The soft Robot Walker supports economic sustainability by reducing healthcarre and rehabilitation costs, Its simple and flexible desing can lower production and maintainance expenses, making it affordable and accessible. It can also create jobs in technology development and healthcare support.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>63d16bb09fbf6b74afb1a010</t>
+          <t>66dd8fd2905d609d29ccf008</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>bioinspired</t>
+          <t>sustainable</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>The wide use of recycles materials in the soft robot low its environmental impact and made it socially and environmentally acceptable. It can be recycled itself to further reduce its impact.</t>
+          <t>It is made of environmental materials and isn't powered by anything that would be harmful to the environment. The way it moves wouldn't be harmful to the ground it is walking on.</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is build in a way to mimic parts of the natural environment and therefore fits in with its surroundings. It has a lower environmental footprint so conforms to socially expected sustainability. </t>
+          <t>There would always be scope to find new ways for this to be usable, it would be safe to produce and have no harmful effects on nature and the people who are involved with it. It isn't something that could be used as a weapon</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t xml:space="preserve">The soft robot uses an array of materials many of which are readily recyclable and can be incorporated in to its design and construction. This makes is a sustainable proposition. </t>
+          <t>It would be cost effective to produce, it would create meaningful employment as workers would be seeking ways to improve on it. As it is environmentally produced, there would always be a steady supply of materials to produce</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>66c88c104a1c0cf2f5534231</t>
+          <t>6776534802a260299509660c</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8131,49 +8142,2379 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>The Soft Robot Walker may reduce environmental impact by using lightweight materials and requiring less energy than traditional rigid robots. If recyclable or eco-friendly materials are used, it can further support environmental protection and sustainability.</t>
+          <t>Because the new robot can be made without heavy machinery its production will be more ecologically sustainable than traditional robots. Additionally, it can be probably made from less harmful and more recyclable resources.</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>The Soft Robot Walker can improve social sustainability by being safer and more adaptable for human interaction. It has potential in healthcare or assistance, helping people with mobility challenges and supporting inclusion, independence, and well-being.</t>
+          <t>I do not think that the new robot has a large impact on social sustainability.</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>The Soft Robot Walker supports economic sustainability by exploring low-cost materials and simple designs that can reduce production and energy costs. This makes the technology more affordable and practical for wider use, while also encouraging innovation and new job opportunities in robotics and engineering.</t>
+          <t>On the one hand the new robot is economically sustainable because it can be made cost-effectively using 3D printers and lowering initial cost as well as maintenace cost. On the other hand, that means that workers who used to construct robots before could be in danger of losing their jobs.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>5e9fd8c26fae5918240e617e</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>It relates to ecological sustainability insofar as less energy is used in its manufacture and operation..</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>The soft robot is an interesting and exciting concept of which i was previously unaware.  I believe that it could have a number of beneficial uses which would increase as its development expands.  For example it could be used to save lives as it could be employed in areas such as bomb disposal and the removalof suspicious object, say, luggage etc from airport terminals.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Economic sustainability is improved simply because cheaper manufacturing costs can be reflected later in operational costs.</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>63d37e4ea0985c4dc486ff8e</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Again, less mining of electronic components is needed to make these which is good for lessening environmental destruction</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>It isn't needing lots of electronic components which are often mined under harsh conditions, it only needs compressed air and 3D printed polymers.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>It's 3D printed so it can be manufactured in many places for low cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>60dca45abca3eb229bafdedf</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>it could be 3D printed from waste material and unlike standard robots isn't solely operated by electricity.</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>seems that with the device being able to be 3D printed it would have an open source following which would create a social aspect advancing ideas between different manufacturers only leading to improvements or evolution in design</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>reduces the cost of manufacture and places it local with cheap 3D printing, reducing shipping costs and can be made to order as such</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>5eea256b9e506b0d09822cdc</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>I doubt it will have much impact outside of being more sustainable than similar products which are so environmentally damning as it is that the benefits do not outweigh but merely lesson the blow of the cons</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>I do not feel as though it possesses any influence in regards to this as it is very niche and not societally applicable</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>I feel like I still don't understand the purpose that the robot serves and therefore it strikes me as a waste of money and whilst I feel as though it may create jobs temporarily because i don't see it having any other success , I doubt that it will make enough money to consolidate the amount that will be wasted in its development</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>673dacc49b7076ea013a0ba3</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>The Soft Robot walker uses materials which minimises ennvironmental degradation I believe? The sustainable materials that it uses (compared to other robots in the market) prove to be much more ecologically sustainable, with the materials use described as not being harmful to the local environment</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>I'm not too sure how it relates to the social aspects of sustainability. It's design and use can be adapted to fit specific needs which may contribute towards the well-being and development of all people. It's adaptive use will prove to help others with specific needs from all different backgrounds.</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's low-cost and ability to be printed at home supports the idea that the robot uses resources efficiently, and it's purpose supports the idea that it can support long-term economic resilience and stability. </t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>6575a21552774fe562fecb1b</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>requiring less materials will reduce use of natural resources and ease of part replacement (home 3d modelling) will reduce resource use</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>may help vulnerable communities if the soft robot is developed further and can be used safely amongst people</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>may apply to the cheaper maintenance and labour of certain industries once developed further</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>63d16bb09fbf6b74afb1a010</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>The wide use of recycles materials in the soft robot low its environmental impact and made it socially and environmentally acceptable. It can be recycled itself to further reduce its impact.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It is build in a way to mimic parts of the natural environment and therefore fits in with its surroundings. It has a lower environmental footprint so conforms to socially expected sustainability. </t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The soft robot uses an array of materials many of which are readily recyclable and can be incorporated in to its design and construction. This makes is a sustainable proposition. </t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>5e4c511d056b9c0ad9b6fd24</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>In a changing world ,where we are growing more aware of  sustainability, it seems natural that we choose to re-use products which would otherwise be discarded. Each of use should be involved in using less of the worlds resources, and making the right choices to ensure a more sustainable future.</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>The Soft Robot Walker will be an obvious choice for education purposes because of it's availability to a wide populus. The equality and inclusion  of all people makes it fairer.
+It will also be beneficial to health as there are no electronics involved in its working, just air, and air is free to every human.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>The soft robot walker does not rely on any power supply, instead it functions solely by using air presuure.. This makes it more efficient long term and is a more natural way of working.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>677ed5bd4c077581a694a164</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The problem with this question is that the robot seems to be made with plastic, plastic tubes. Even with 3D modelling you are using plastic. If you could make the model out of sustainable products even better. To me it as to be made out of other material to be ecological sound. That said it seems a very clever idea. </t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Because it has a softer approach to its being made and use it fits well into this category. It gives the impression that it is softer in it's making wanting to follow the natural world at all times.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>It is efficient in that it uses air to work compared to electricity that has to be generated. But so does compressed air. It seems a very good idea to follow the pattern of the natural world as I am sure many answers lie within that world.</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Enjoyed the project. Makes me want to go away and google Soft Robots to see where research like this has taken society.
+I would not sell it as environmentally sound due to plastic and other materials being used. It certainly uses better products than older robots. Your direction is right but be honest in that it uses softer materials, products that can be flexible. Keep to the natural world but don't say its made in the natural worlds image. Instead it follows the concepts of the natural world. The video really helped. Better close ups of the robot would also help understand. 
+Good luck in the next stages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>67628ff33a15445ebd5eda69</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Using reclaimed material to produce the  SRW will impact positively upon the environment.</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I am unsure as to how the SRW can impact social aspects of sustainability.</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>The SRW could be used in many ways to support business and industry.  However, if it takes jobs away from humans it could negatively impact employment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>66c88c104a1c0cf2f5534231</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>The Soft Robot Walker may reduce environmental impact by using lightweight materials and requiring less energy than traditional rigid robots. If recyclable or eco-friendly materials are used, it can further support environmental protection and sustainability.</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>The Soft Robot Walker can improve social sustainability by being safer and more adaptable for human interaction. It has potential in healthcare or assistance, helping people with mobility challenges and supporting inclusion, independence, and well-being.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>The Soft Robot Walker supports economic sustainability by exploring low-cost materials and simple designs that can reduce production and energy costs. This makes the technology more affordable and practical for wider use, while also encouraging innovation and new job opportunities in robotics and engineering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>607f179ab5b13c7618778498</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>I feel the robot may have the potential to minimise environmental degradation, due to the nature of the design and the impact this has on the environment it is used in.</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>I feel the slow robot walker relates to the social aspect of sustainability when the potential applications for the robot are considered. For example, if these applications relate to health, such as the ability of the robot to improve access to health procedures for all, this would be a positive impact. However, without knowing the applications of the robot, it is hard to say how this provides an equitable wellbeing and development for all people.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>The robot may relate to the economic aspect of sustainability in the choice of materials used and the longevity of its use. I feel the robot has the potential for efficiency in its applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
           <t>304</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>66cdeb8a1b24ca4b3267616c</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>sustainable</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
         <is>
           <t>It helps with ecological aspects off things as it is powered by air as the video stated. Therefore it is powered with a natural resource rather then using gas/electricity or other things that could harm the enviroment. Making it alot better for the world around it.</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>It helps as it is enviromentally friendly it is not a sore point in a conversartion. it is benefiting others and it helps to include all people.</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>It helps with economic sustainability as due to the parts being 3D printed it can easily be repaired or peices can be added or replaced without great money, time or matereials being used. It is alot more economically friendly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>674ae5a1ba7d929b2c1306e5</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It is possible that powering the soft walker would involve reduced use of electricity, helping to reduce costs and emissions. The soft walker could also perhaps be manufactured from light, easily transportable and recyclable materials. Large versions could be deployed amid environments high in vegetation without damaging them as much as heavier or less yielding vehicles. </t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>The soft walker could be an aid to people with disabilities, including those arising among elderly citizens, enabling them to keep greater independence or stay in their own homes, with appropriate support. The walker might also be a form of technology which was easily transported and adapted at a fairly low cost. It could be cheap enough to use, and practical, in challenging environments, including parts of the world with degraded infrastructure or technological access. In that sense, it would foster inclusion - for example, of people in poorly connected agricultural communities. It might also be easier to use in schools than other robots and weightier, more complex devices.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>That materials used for the soft walker may me of a more sustainable (and indeed recyclable) sort than those used in equivalent devices, such as metals and rare minerals. The soft walker may be less easily damaged, and easier to add to, than other machines. In that way, it might conserve materials and resources. It might be repairable with less expertise, meaning it could be used in difficult or impoverished environments; its lifespan and utility might be greater than its competitors, while it could remain in a particular place without the need to transport it to a lab or factory.</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>The question about the possibility of befriending a robot 'if' it had emotions is a bit tendentious. It rather begs the question of what a robot is: would it still be a robot if it had emotions? It might be like saying 'if a robot was not a robot/more like a person, would you befriend it. It might be interesting to ask whether people would or could befriend something without emotions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>5eff07d279c81803541503a8</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>The soft robot is made from plastic so is sustainable.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>There are no electrical parts this makes it more sustainable.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The parts can be made from a 3d printer so easier to source. </t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>65dca6bb88611ac902cc60fb</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>From the video, it sounds like the soft robot uses less energy when in use. With it's soft legs, it also wouldn't ruin any terrain it may be used in our damage the earth/natural habitats.</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>As mentioned, I can imagine the soft robot being used in miltary and law enforcement environments. I don't think this robot is invasive and will contribute to situations being handled in a peaceful way without the fear of using robots to help us in everyday society.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This new type of robot is highly innovative - I can imagine emergency services and armed forces using this robot in real-life situations. Which would help promote employment so that these robots can be produced and rolled out across the country. </t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>68a09fd470dc64f51f7ef871</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>The use of material, 3d printed could allow for the use of recycled materials in the process, especially plastics. It is powered by compressed air, rather than by electronic servos and motors reducing its power consumption as a whole. These appear to be the main areas of sustainability, although you could argue its soft shell legs and feet would be somewhat gentler to the surroundings e.g. environmentally sensitive areas.</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Its material use is a massive part of this, not having to use new materials or having to use materials which may require a lot of energy to create in the first place, i.e. metals. Even if metals were recycled they would still probably require a lot of energy to process them. 
+Clearly there are still some overheads in recycling plastics but the energy requirements I assume would be less. 
+The power source is compressed air, so less use of electricity or pertro-chemicals, it also means that a battery, whether made from lithium or acid based is not required. </t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>As with the sustainability aspects it novel use of material and ability to have 3d printed parts would be a lot cheaper than large mechanical metal parts. Being powered by compressed air is also a clear benefit.</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Very interesting, would like to have seen some of the parts as a 3d model, the valves for example. Otherwise clear and very interesting</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>5f262b3018c68e27aebdd170</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>I think natural is best - and I think with the rise of this new technology it does impact our nature and ecological systems negatively.</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think people will always be a better option and outweigh a robot personally. I do hold a lot of scepticism regarding AI/bots etc. I think as long as they are used as an aid and NOT a replacement that could work. </t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think it terms of sustainability it has its pros and cons - I think it crosses and blurs the lines of social boundaries. It is unusual and maybe the future but people are not all comfortable with it. I think more research would need to be explored in order to ascertain just how high the sustainable aspects are. </t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>6658ccce522b5c7e8975311e</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>It would be able to assign itself to different environments without alterations due to it's design, and this would promote a much more peaceful messages with the soft robot core</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>The soft robot would be able to be resilient in it's environment and promote a peaceful behaviour due to the fact it takes elements of the design from smaller "bug" type animals.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>With the design being a soft type machine, it focuses on not needing to farm harder type materials that are more harmful to the environment and those around it, this makes it easier to maintain and keep going for longer periods of time without needing replacements</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>67765cb5eae26d06c3116c3a</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>1. Reduce power needs for propulsion and effective operation.
+2. Reduce the need for transporting systems over long distances, local build via 3D printers.
+3. Reduce the use of rare earth metals which are better left in the ground.
+There may well be other aspects but the three above between them will reduce our dependency on fossil fuels for power and transportation, reducing global warming and helping to limit climate change. They will also reduce the mining for rare earths in areas of the planet which up until now have not been exploited.</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>These may democratise tech, reducing the power of the US tech barons over the world and their ever more clever and sinister chips. Not mining in areas like rain forests will support native communities in places like the Rainforests around the world as well as the damage to places like the sea bed and Antartica. Being more sustainable means that we are not draining our resources to enrich the already rich and increasingly powerful but can instead support local communities and people.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>The robot uses less power than similar devices. It can be constructed closer to its point of need via 3D printing, reducing travel pollution/energy costs. Its soft design and the use of compressed air enables it to take over from more power intensive devices. It may well need less minerals and metals. The simpler design and functionality will enable it to operate in places where currently more technologically advanced and expensive devices are used.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>5c93e5293a673a0001869096</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Use of polymers avoids use of specific minerals that are part of electrical components.   Longer term lf span and lower cost of replacements</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Dealing with people who may be in disadvantaged environments.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Lower cost of materials,  ease of manufacture and potential ease of installation.  No external/internal power supply required</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>5c5341722a52960001fe2420</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It could be used to pick up litter from beaches or natural places. </t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It could be used in research labs to handle toxic or dangerous substances that would otherwise have to be handled by humans. This use would contribute to scientific development e.g. health research. Similarly, it could be used by the military/defence to explore and/or handle dangerous items such as grenades or bombs so human's don't have to. </t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>It could be used in the factories for the production of goods to save costs and in turn, reduce the price of goods for consumers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>60a6a76aca6c98b970de90f2</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Soft Robot Walker may offer some environmental advantages compared to traditional rigid robots. Being made from soft, lightweight materials can reduce the amount of raw resources and energy required for manufacturing and transportation. If the soft materials are recyclable or biodegradable, the ecological footprint of the robot could be further reduced.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Soft Robot Walker has the potential to positively impact well-being, equality, and inclusion. Soft robots are inherently safer to interact with than rigid machines, they can be used in close contact with people, such as in healthcare and rehabilitation without posing high risks of injury. it can improve quality of life for individuals with mobility challenges or those needing physical support.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Soft Robot Walker can encourage innovation in low-cost, adaptable robotic systems. Because it is made from soft materials and powered by compressed air, it may be cheaper to produce, repair, and maintain than traditional rigid robots that rely on complex electronics and motors. This can lower barriers to entry for small companies, researchers, or developing regions, supporting more equitable economic growth.
+It can create new types of jobs in material science, design, and manufacturing, while promoting efficient use of resources through lightweight structures and simpler mechanisms. However, economic sustainability would also depend on how scalable the technology is and whether the materials and energy required for the air systems remain affordable and efficient.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>60fa71bc7472b86d43f23ede</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Unsure about the long term eco-effects of this, though its design and function is significantly better than a lot of other models similar to it. Whether or not the same can be applied on mass and retain its current ecological benefits seems a long shot</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>This device is sustainable at a level where it is not a threat to any aspect. Although innovative, it poses no danger to humans, is fully under control, present opportunities for education for those interested in its construction and function and is clearly not designed to be a weapon. This is not to say this couldn't change in the future</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I struggle to see how it could contribute at this stage, however the idea behind its construction with some deeper thought, research and application could certainly be a positive sign for the future economy</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>5d8154a847a45600189e8f35</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>To be honest, I'm not sure how but I imagine it would be to do with the application and use of the robot that may contribute to this.</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>So much of the material for tech is mined from poorer countries, so the setting limits and using altenratives contribute to social justice, etc.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Job creation is a large of this and the reduction in use of materials that are not deemed ecological.</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>5f60c23b536ef9026ec9ece4</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>As long as it is made from recycled materials and is recyclable then it is much better for the environment.</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I can see how this robot could be used in health care and education, to support and educate human counterparts.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>If the robot can be constructed using recycled materials, and it's parts can be recycled when no longer used then it will be much more sustainable and economical than a traditional robot</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>59a3b1a35fd74b0001abf9c1</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Similar to above, because the techniques and materials used to manufacture the soft robot are more env friendly and sustainable, then it is extrmely more ecologically friendly to manufacture and, indeed, run</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Because it is so much cheaper to manufacture and run, then it is available and accessible to so many more communities and people in society.  Force for good.</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>SRW appears to be so much cheaper to manufacture and run.  It uses sustainable techniques and materials for manufacture as well. So much more env friendly than traditional robots.  This means that is substantially cheaper to manufacture as well.</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>I forgot about the dangerous aspect of robots work - eg bomb disposal.
+Apart from that, thanks for something I found really interesting, although I struggled a little with the tech aspects of the robots.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>656f0ce82c0ba5e95ad58a03</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>It can be eco friendly and energy saving</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">By providing physical support to humans </t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It can help people in jobs with dealing with tasks </t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>63dab24ece887158c2adb6d7</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>It appears not to damage the environment it operates in.</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>I can't really think of any</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>I guess that if a part malfunctions it can be replaced easily</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>5a86b089aa46dd00016bb064</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Using this product instead of machine based robots will help to protect natural habitats as it is less evasive and wojld not casue as mcuh damage as a product made of metals</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>It would fit in to society for individual needs without harmful components and structure</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>It could provide long term employment as the product innovates, with potential to help individuals with disabilites gain employment and improve day to day living</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>I really enjoyed this study</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>670142d963865cf1d9f4770b</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Because of the material used.</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>I really have no idea about this, as this is not my field at all.</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>SRW seem to be more sustainable that traditional robots because of the materials used to make them.</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>681b781064a5701a5ceee3bc</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>All I can really say here is what the video mentioned about this robot using less energy than conventional counterparts, this was not very clearly explained so i am very limited in what i can say about it. Obviously it doesn't use *no* energy so whether it can be considered beneficial depends on the tasks it carries out.</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don't really understand what I am being asked to say here! i don't think there's any point in giving some platitudinous answer about how wonderful this robot is and how it will bring people together because |I have no reason to believe that this is true. </t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Any device that can be run using the least amount of power, ie an efficient device is going to conserve resources, if the robot can enter dangerous environments and save people from having to take risks to carry out these tasks so much the better</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">video did not address their susceptibility to damage, I can imagine that this sort of machine would be liable failure due  to pressure leaks </t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>5ea824f580b9ef228f589930</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Again, the only downside I can see is that this will likely cost a lot more to achieve, but I think it is perfectly achievable and if the company wanted to achieve sustainability through the preservation of ecosystems and biodiversity that they would be well within their power to achieve this. I think there is a thin line between achieving this and promoting it to the point where it just becomes a matter of PR. Other words there is a balance between actually following through with promises of sustainability and promoting it. </t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think all of the above points are linked so the social aspect of sustainability is also linked to the economic aspects as well as the ecological aspects and the other factors mentioned. Again, I think it is well within reasonable targets to consider the concerns in equitable well-being and development of all the people within safe limits and to emphasise the use of social justice education health equality and inclusion to foster peaceful societies and to communities. </t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think all of these things are possible to achieve with most modern technology, so I don't see how this would be a massive hurdle or a massive target to hit, I think it would be very easy to consider the economic aspects of sustainability concerns and to promote efficient resource use and innovation. The only downside of this is that it would likely cost a lot more. </t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>The video timer initially kept on freezing but we got there in the end. Ended up watching the video several times.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>676068536a687b2878284c08</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Low energy consumption and more resilient. Lower energy consumption will directly impact the environment. Whereas resilience of the materials used will save on materials in the long run which has hug environmental benefits by reducing waste.</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>The ability for the soft robot to go into many different environments could mean it could be used in multiple environment which would benefit a lot of people.</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>The resilience of the materials would mean that the resources would not need to be replaced a lot and would save on resources. The robot is very innovative using new technologies. Not sure about how it would impact employment as it may negatively impact employment as there would be less need for maintenance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>5cae3e6a47494e0018328cbb</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>It uses materials that otherwise would just be thrown away therefore it is helping with sustainability</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>I don't feel it does</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>It uses resources efficiently therefore it has some economic sustainability</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>5f8332b20ea88a489c36b41a</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>The fact that a lot of the robot can be 3D printed is excellent for sustainability, as with technology these days there is endless amounts of waste which is difficult to recycle and as such is discarded and is harmful for the environment. That the robot is 3D printed leads to preservation of ecosystems, directly or indirectly.</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>There is not much that relates the two topics, but one that I can think of is that it saves people having to root through piles and piles of technological waste to find valuable materials, since the robot is made without such materials (I think).</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Returning to the 3D printed point, this is cheaper than using actual materials for the construction of the robots, and as such the robot could be described as economic.</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>The presentation was dull and a bit slow but it was still informative</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>63ebbb358ff6781d8dc68cdb</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>the use of modular components and the lack of power needed makes this far more ecologically friendly.</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>i suppose that the soft robots sustainability can help towards a more ecologically friendly environment and therefore leads to a more socially sustainable socirty</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>it would appear that the soft robot suggests sustaiability as it is far more efficient and usues no fossil fuel generated power</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>67e2b6561ccb8f5bb055cc85</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Soft robots do not affect the environment negatively as they air pressure for energy and environmental friendly equipment which ensure preservation of ecosystems and climate stability</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Soft robots impacts social responsibility health and equality by using safe materials and application of creative craft to boost the productivity and clean safe efficiency</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>The soft robots have a positive economic impact as they are made from low cost material and low cost energy to produce effective results</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>5b2785058ecf3f0001619d87</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It can be used for many ecological benefits such as reducing energy and material waste, recycling, etc. </t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They can promote physical and mental health, improve work environment, teach, promote awareness. </t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Increase productivity growth, optimising the use of material and energy, etc </t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>5ca650fc557aec0012e200d8</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>I wasn't so sure about the preservation of ecosystems with the soft robots, as these man-made products still require the use of Earth's materials. They have smaller footprint though, compared to the larger ones.</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>The Soft Robot seems to be safe to use and can potentially inspire the future generations to design robots based on nature.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>It seems like the materials used to make the soft robots would be more sustainable as they can be 3D printed, possibly using recyclable materials (plastic). This would reduce the use of non-sustainable materials as in more sophisticated robots.</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>666c50576894ee3e6696af53</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>The Soft Robot Walker is ecologically sustainable because of the low energy and robust materials used. This robot requires less energy and helps to raduce waste and readily reusable parts can be replaced.</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Soft Robot Walker promotes social sustainability because it is safe to interact with human beings. It is made of soft materials that do not cause injuries to human beings. It can be applied in teaching, research, or where human beings and robots have to interact.
+</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Soft Robot Walker is economically sustainable because it is made up of simple materials, requiring less maintenance. The robot is also energy efficient, making it cheiaper to produce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>673375095534faa4b446447d</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>it is trying to be more environmentally friendly in terms of its components and the way it operates</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>it is trying to be more environmentally friendly in terms of its components and the way it operates</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>it is trying to be more environmentally friendly in terms of its components and the way it operates</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>6648b380adcc8b522c401d27</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Because of the soft construction of the legs and the way it moves it limits the damage to the environment in which it operates.</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>It can be made from recycled materials and it's construction limits damage to the natural environment during use.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>It uses materials that are sustainable and limit the impact on the environment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>5d68c8aa40524c00189e8ac2</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>The materials used in the Soft Robot Walker are biodegradable and have less impact on the environment as a result of their construction. Due to the soft material construction of the Soft Robot Walker, it is less likely to cause damage to other objects, therefore extending the life of the materials it interacts with.</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>The Soft Robot Walker has a steady gait and is able to carry objects, giving it potential use for people who are differently-abled. The materials used are softer than materials used in other robots, making it safer to be around and interact with people without oversight.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>The Soft Robot Walker can make use of cheaper and reusable materials in its design. This in turn makes it cheaper to replace parts of its design, either as part of iterative process, or due to wear and tear.</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>5e909d6c5321c13abee11725</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Main priority should be protecting ecosystem survivor diversity so plants animals and humans can survive and keeping the client stable and using natural resources slowly and carefully instead of exhausted and also reducing pollution and environmental damage and continue to function. </t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Health and well-being is important to me and social justice opportunities and resources on only for a few people and we should consider education at school so people can adapt society 30 and we should also foster equality and inclusion so no one is excluded because of age disability gender or backgrounds. </t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think they can reduce dependency on full-time carers when it comes to supporting costs related to health care so I can definitely see that there is an economic benefits in enabling people to stay in the workforce longer as well because mobility issues are quite a productivity killer so we can allow older adults of people have disabilities to continue working on commuting and participate in an economic life. </t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>62b2f74cf3794e252cc7d1a7</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>It's a more sustainable alternative to other typical robots that we see, it operates on compressed air and the robot itself is durable, it also is able to manouver the same way some wildlife does, it will be able to complete tasks which we give us more knowledge.</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>It blends in with nature and I believe that will reassure people that it's not a robot that is meant to replace humans, but that we can use to gain a new point of view and more.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>It's a very good base model, and it's durable, it's low maintenance / running costs, it can also be improved / upgraded without having to create a brand new robot, it's also 3D printable meaning that it doesn't use extreme technologies to create it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>5a5e14fc8e625900017626a9</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>It does everything it can to minimize the environemental issues we have</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It emphasizes on everything it can to be sustainable </t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>It supports and promotes  long term sustainability</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>671a0b9bd81fdefb79d4f647</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In ecological point of view I would say it's neutral. because It will cause some harm to environment due to use of nondegradable materials while production and energy usage. But compare to other hardy robot models hope it will be better in energy usage and the material it uses like soft materials. </t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>It will not much social impact, But of course it will cause some disruption in job opportunities in future like manual warehouse jobs</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In economic point of view soft robot will help in  a positive way, it will help reduce employer cost for several manual jobs involving transporting and carrying objects like warehouses. </t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>5e650e7afc8a902839459455</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>It isnt made with electricity, instead using compressed air so has little ecological impact along with being made with reusable material when printing.</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>It is safer and more gentle than traditional robots, made with softer parts and adapting to only grab hard when needed.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>It is made with 3d printing so can easily be mass made without a big economic impact. Along with being resilient to endure many environments so wont been to be replaced often</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>67607e34fb2abbf20ec24851</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>By using materials which are safer, this means that the robot will not use materials which take up a higher level of carbon footprint and finite resources, helping to preserve the ecology of our planet. Being safer will also ensure that it is more biodegradable and recyclable, should the need for the robot cease and its materials are desired for other purposes.</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>The robot can contribute to social sustainability by providing flexible support to humans, due to its design which can be multi-purposeful. For example, by mimicking an animal, it provides comfort to those who want a more grounded and natural product, compared to the artificial nature of traditional robots. This could help with social well-being.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think that because the robots are made from materials which are safer and more durable, this means they will be safer for the environment, not only in the resources required to build and maintain it, but also on safety aspects which will make it last in challenging terrain. This is compared to typical robots which are more circuit-based and prone to malfunctions and overheating. </t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>No feedback, it was really interesting. It would be good to hear about what uses the robot will have, and what the most popular ones are.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>67315b4e31944aa214d27e9d</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it seeks to minimize environmental degradation </t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it emphasizes all the social aspects of sustainability </t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they are both sustainable over a period of time </t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>55d5b77ddb6a810006fa05d5</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>by not using any electrial parts/batteries, only using air there is a massive environmental boost</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>people in general will be happy that it is made and used in an sustainable way</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>it will be cheaper to run as it lasts longer and doesn't require batteries to run it</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>5dd0409d9ca8a312350a4118</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>The lower energy consumption of the soft robot when compared to conventional robots makes it a more sustainable option.</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Their use may help aid those working in healthcare or those with disabilities as they are safer than conventional robots when working with humans.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>It may provides a more cost-effective robotic option due to its greater energy sustainability when compared to conventional robots. This will increase the competitiveness of businesses you may not ordinarily be able to afford a robot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>571cd566e1d2ec0013a68b64</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>the Robot supports ecology by seeking to minimising environmental degradation and ensure long term resilience.</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>it emphasises social justice, health and other aspects whilst fostering cohesive societies.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>The  robot empahises economic sustainabilityby promoting decent employment innovation and therefore supports long-term  economic stability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>606636c51440cbda6843b4e7</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the way it moves is light and intentional which means there could be less impact on the biodiversity and habitats that it 'walks' on. </t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the soft walker can be developed for many different social aspects such as research for medical purposes and could further be developed for surgeries/ medical practice in real-world trauma situations where personnel may not be able to reach. </t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the robot is made from 3D printed components which are relatively cheap to manufacture, therefore there is a cost saving aspect of the robot. </t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>5cd4ad19f014930017d35d6a</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Soft robot walkers boost ecological sustainability with energy-efficient, biodegradable designs that slash waste and carbon use.</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Soft robot walkers help keep people mobile and independent, especially the elderly or those with mobility issues, reducing isolation and easing family caregiving burdens. This boosts social connections, mental health, and community strength while lightening pressure on health systems.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Smart robot walkers boost economic sustainability by slashing healthcare costs via fall prevention and faster rehab, while fuelling jobs in AI and robotics. </t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>6346a1e77cf1b1558d2a8c2c</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The materials used will stand the test of time as they will not degrade or recycle for many years to come, they are also in large moderation of production what I mean for this is they aren't complex and custom made, they are already in the pipeline and exist so only have to be made to a certain length or similar situation to be added to this product, rather than having to create something solely for this which is not good practice for ecological sustainability/climate. I also think that there are a lot more benefits in terms of protecting natural habitats and climate stability as a whole to be reached from printing these at home rather than factories or warehouses and manual labour </t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>It will act as a good service to many people therefore benefitting the health and education system and it is in no way any danger in terms of equality or social justice so long as it is not inaccessible to large amounts of people, I strongly think that it had the capability to help a large amount of people if so.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>I think the items used are sustainable and of good quality, they aren't for the purpose of aesthetics or any other unnecessary features; you can feel there was a careful and mindful consideration to using effectives resources when constructing and maintaining the product. I think as well they are cheap materials but only in the way that replacing or modifying them is not costly and therefore more sustainable and reliable overall</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>6773edcbb205d22a2e097948</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>They don't have any negative environemntal effects so they protect biodiversity and save ecosystems.</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>They contribute to the wellbeing of people</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>They are efficient resources that don't waste resources and could encourage long term growth because of their sustainability</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>665cc3df1329066906fba1ad</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The robot contributes for sustainability by promoting the energy efficiency and offering a reduced carbon footprint. The system allows for it to be energy efficient by only needing power for certain activities reducing the greenhouse gas emissions. </t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The robot contributes to social sustainability mainly through the safety of it. The soft materials allow for safer interactions with people with promotes inclusion. The adaptability to make it suitable for hazardous places protects workers. </t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The soft robot walker supports economic sustainability through its efficient resources and innovation. It enables more energy efficient operations compared to normal grippers which reduces operation costs. </t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>630381b587675d45be2c3c16</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>It again uses reusable materials so there's no harm to the environment or harmful emmisions.</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>It is unlikely to hurt anyone given its soft body design, which is great compared to other robotic products.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>It is made from reusable materials so it doesn't have a negative impact on the environment and limited natural resources, likely making it cheaper to produce and therefore affordable for people to purchase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>599da21f872eec00019569ff</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>The product uses cheap to make products from 3D printers and doesn't contribute to fast tech and unsustainable practices around developing products to use so it is is better to minisize environmental issues.</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>The Soft Robot doesn't use electricity and only uses compressed air so it is more sustainable and better for the environment. It can be used in different environments because of that and is safer to use in dangerous situations and can help with protecting people.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>The product is efficient and can be created using a 3D printer that all people can buy and use so it helps people get involved with the creation of the robot easier. They can assist people in promoting job roles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>5e787106a9d3b53ee4281eb1</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>it does not use electronics so it blends in better into natural environments</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it could be used for purposes that support social development. by supporting ecological and environmental cuases it also indirectly supports human wellbeing and health in the long term. it doesn't use electronics or toxic materials so it doesn't pose a particular health risk </t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>it uses resources efficiently by 3D printing rather than using up the Earth's non-renewable resources. it is an innovative idea that could support jobs and economic growth, such as people to technically support the use of the robots in their various functions</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>66c0bcab0a19a0e7d82c2b80</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Similar to the previous answer, the creators have been mindful of how of the materials that have been used to create it, and thus it doesnt appear to have an adverse effect on the universe.</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>It may relate to the social aspect of sustainability due to the materials used on how it was made. It is not taking from any disadvantaged communities. It has a solid purpose</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>The materials used I believe are organic, and thus can hopefully used again and again for a shared purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>67606834af1a0648e31f2ac8</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think the soft robot would be sustainable as it would not use many resources/materials over and over again, unless purposely damaged by other humans. It minimises harm to the environment as it would be used to clean up litter, which would be beneficial for soil, animals, water and consequently the overall environment of the world. </t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If the soft robot is used to clean up litter/harmful objects, it will benefit the people socially by creating a better quality environment, which is beneficial for health overall and the amount of environmental damage we are causing in the world. This may also alleviate stress from people who centre their lives around saving the environment, and the soft robot may encourage and motivate people to take care of the world and environment, such as not littering. </t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It may affect the economy as those who have litter picking jobs would lose their job, which is a concern. however, litter picking is something more trivial which can be much faster and more effective if a robot is programmed to do so, which could potentially allow governments to save more money, and use it to improve the economy in other ways. </t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>no :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>5ebac8f4b855e10507cfb343</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">if the parts are sustainably sourced and either infinitely recyclable/biodegradable </t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>can be used in a variety of terrains and contexts without taxing the living environment. runs on compressed air, removing the need for fuels that are costlier and may be more harmful to the social environment</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>the development, testing, and ongoing technical support required will mean new job creation and because the soft robot can be 3D printed it means more equal accessibility as it keeps the cost of both repair and acquisition lower than that of mechanical robots</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>5ea950e4befef302772be716</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>It uses natural recycled materials and no electronics, meaning it stops us having to give off many emissions to make.</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Similar to above, it uses recycled materials, meaning we don't have to take new resources in order to create it.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Using recycled materials is cheaper, and therefore economically it makes sense to create these for use in jobs that are suitable to them. </t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>63d4029514fd2433484c50a4</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Depending on the efficiency and performance of the soft walker, this will have an ecological impact. Furthermore, out-of-service plans will also have an impact ecologically depending on the plans for the soft walker e.g. recycling, waste, re-using, re-furbish etc</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The manufacturing process and materials used will have an impact on sustainability depending on what process and material is used. Furthermore, its use cases will also have an impact on the social aspect. </t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depending on the costs behind manufacturing, assembly, maintenance, design, demand, and sales the soft walker will have an economic aspect. </t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>5c3f18cf105d550001417ef0</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>bioinspired</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>can be used on various surfaces without wearing away</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>It can carry out tasks which are safe and energy efficient. I cannot see how it emphasizes the above mentioned</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>The operation of the soft robot is more energy efficient than other soft robots</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There was a lot of information on the robot and was quite overwhelming with the amount of spoken word on relation to it </t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>67f51598a171368b79c8066a</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>The ecological aspect of sustainability is concerned with safeguarding ecosystems, biodiversity, and climate stability in order to preserve the natural systems that support life on Earth. It focuses on reducing environmental harm, protecting natural habitats, and promoting the long-term resilience of ecological processes for present and future generations.</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Social sustainability promotes equity, social justice, and inclusion while supporting human well-being within environmental limits, contributing to stable and resilient societies.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>The economic aspect of sustainability focuses on fostering prosperity and productivity while respecting ecological and social boundaries. It emphasises efficient resource use, innovation, decent employment, and inclusive growth to support long-term economic resilience and stability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>6685633b50fdf89801428491</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>sustainable</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>The Soft Robot as described and as presented in the video seem to be an Eco-friendly invention, that uses sustainable materials and does not use electricity. This will have a significant positive effect on preservation of ecosystem and climate stability by reducing green gas emission and global worming.</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Socially, Soft Robot Walker can also play significant role in improving the well-being of people by improving the quality of live as it would help doing many tasks and jobs.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Economically, Soft Robot Walker would have a positive effect on the economy as it is produced from sustainable, widely available and cheep material.</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>It's too long for such incentive.</t>
         </is>
       </c>
     </row>
